--- a/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
@@ -507,1172 +507,1172 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.006729444877159105</v>
+        <v>0.006729444714843848</v>
       </c>
       <c r="B2">
-        <v>0.5968891265114552</v>
+        <v>0.5968890241348194</v>
       </c>
       <c r="C2">
-        <v>0.2906972744400588</v>
+        <v>0.290697258962077</v>
       </c>
       <c r="D2">
-        <v>0.3462557293974359</v>
+        <v>0.3462557094795982</v>
       </c>
       <c r="E2">
-        <v>24.60475694615796</v>
+        <v>24.60475448528398</v>
       </c>
       <c r="F2">
-        <v>0.1517401128633912</v>
+        <v>0.1517400646658244</v>
       </c>
       <c r="G2">
-        <v>-0.0001369527752824929</v>
+        <v>-0.0001369527196907644</v>
       </c>
       <c r="H2">
-        <v>0.001303791154074713</v>
+        <v>0.001303791153347196</v>
       </c>
       <c r="I2">
-        <v>0.04135147837996595</v>
+        <v>0.04135145700558483</v>
       </c>
       <c r="J2">
-        <v>1.688176716793375</v>
+        <v>1.688176545220948</v>
       </c>
       <c r="K2">
-        <v>0.01250490601043145</v>
+        <v>0.01250490232902521</v>
       </c>
       <c r="L2">
-        <v>2.105690334576963</v>
+        <v>2.105682212436354</v>
       </c>
       <c r="M2">
-        <v>0.003254155193753875</v>
+        <v>0.003254155078836801</v>
       </c>
       <c r="N2">
-        <v>-1.427482323153523E-06</v>
+        <v>-1.427482334074166E-06</v>
       </c>
       <c r="O2">
-        <v>0.002721457235856039</v>
+        <v>0.002721457321524386</v>
       </c>
       <c r="P2">
-        <v>0.005039396314440279</v>
+        <v>0.00503939609136558</v>
       </c>
       <c r="Q2">
-        <v>0.005147148849157528</v>
+        <v>0.005147148514999522</v>
       </c>
       <c r="R2">
-        <v>0.00657735025753389</v>
+        <v>0.006577350296557264</v>
       </c>
       <c r="S2">
-        <v>2.286236507518326E-08</v>
+        <v>2.286229260921443E-08</v>
       </c>
       <c r="T2">
-        <v>2.804576437924664E-06</v>
+        <v>2.804576286646759E-06</v>
       </c>
       <c r="U2">
-        <v>0.02906425937168457</v>
+        <v>0.02906423580601623</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>6.378781672438107E-05</v>
+        <v>6.449699386866484E-05</v>
       </c>
       <c r="B3">
-        <v>0.001778788263113802</v>
+        <v>0.002019723703034036</v>
       </c>
       <c r="C3">
-        <v>0.001736175483912247</v>
+        <v>0.001748421037928708</v>
       </c>
       <c r="D3">
-        <v>0.002400287192030293</v>
+        <v>0.00241639517749037</v>
       </c>
       <c r="E3">
-        <v>0.5621001954456217</v>
+        <v>0.5627276345119683</v>
       </c>
       <c r="F3">
-        <v>0.0005323275708629376</v>
+        <v>0.0005970994264730407</v>
       </c>
       <c r="G3">
-        <v>2.768476434483815E-06</v>
+        <v>2.902514369425589E-06</v>
       </c>
       <c r="H3">
-        <v>2.161967407280535E-08</v>
+        <v>3.275734954902417E-08</v>
       </c>
       <c r="I3">
-        <v>0.0005069781219526861</v>
+        <v>0.0005402308070769754</v>
       </c>
       <c r="J3">
-        <v>0.05001341758757129</v>
+        <v>0.05027410297519043</v>
       </c>
       <c r="K3">
-        <v>7.405213759697054E-05</v>
+        <v>9.0729660419996E-05</v>
       </c>
       <c r="L3">
-        <v>0.0004680829051204934</v>
+        <v>0.0004738762212937194</v>
       </c>
       <c r="M3">
-        <v>-0.0002291347025415258</v>
+        <v>-0.0002270305203886756</v>
       </c>
       <c r="N3">
-        <v>1.897705006722041E-09</v>
+        <v>2.026611661583984E-09</v>
       </c>
       <c r="O3">
-        <v>1.868220327150257E-05</v>
+        <v>1.922208953595558E-05</v>
       </c>
       <c r="P3">
-        <v>1.456429835519641E-05</v>
+        <v>1.511339563800837E-05</v>
       </c>
       <c r="Q3">
-        <v>1.495036102280947E-05</v>
+        <v>1.551989209555403E-05</v>
       </c>
       <c r="R3">
-        <v>6.72981416752173E-06</v>
+        <v>1.57060172332956E-05</v>
       </c>
       <c r="S3">
-        <v>3.431614251165793E-11</v>
+        <v>3.537321521081128E-11</v>
       </c>
       <c r="T3">
-        <v>2.648833578280139E-08</v>
+        <v>2.724177090435862E-08</v>
       </c>
       <c r="U3">
-        <v>9.198285075402912E-05</v>
+        <v>0.0001049276240050126</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006992716224157819</v>
+        <v>0.006992716124872204</v>
       </c>
       <c r="B4">
-        <v>2.903410315843099</v>
+        <v>2.903410318825967</v>
       </c>
       <c r="C4">
-        <v>0.07038871988596146</v>
+        <v>0.07038871912546796</v>
       </c>
       <c r="D4">
-        <v>0.09440798022224051</v>
+        <v>0.09440797898428616</v>
       </c>
       <c r="E4">
-        <v>8.341453955453751</v>
+        <v>8.341453224395593</v>
       </c>
       <c r="F4">
-        <v>1.848787728778814</v>
+        <v>1.848787729414842</v>
       </c>
       <c r="G4">
-        <v>0.0007213160952573712</v>
+        <v>0.0007213160999065534</v>
       </c>
       <c r="H4">
-        <v>0.0001023750980626229</v>
+        <v>0.0001023750981049937</v>
       </c>
       <c r="I4">
-        <v>0.08131586770560949</v>
+        <v>0.08131586618215129</v>
       </c>
       <c r="J4">
-        <v>1.694323756287163</v>
+        <v>1.69432370406276</v>
       </c>
       <c r="K4">
-        <v>0.1197926436195773</v>
+        <v>0.1197926434468261</v>
       </c>
       <c r="L4">
-        <v>0.1250208703609975</v>
+        <v>0.1250211714491735</v>
       </c>
       <c r="M4">
-        <v>0.003473828866950949</v>
+        <v>0.003473829537712204</v>
       </c>
       <c r="N4">
-        <v>4.730718268095267E-07</v>
+        <v>4.730718267972694E-07</v>
       </c>
       <c r="O4">
-        <v>0.003900919280139335</v>
+        <v>0.003900919269956768</v>
       </c>
       <c r="P4">
-        <v>0.006715645281781266</v>
+        <v>0.006715645291755327</v>
       </c>
       <c r="Q4">
-        <v>0.007422234025707851</v>
+        <v>0.007422234032959725</v>
       </c>
       <c r="R4">
-        <v>0.04519907277863969</v>
+        <v>0.04519907283276227</v>
       </c>
       <c r="S4">
-        <v>1.231828995914816E-08</v>
+        <v>1.231829261416778E-08</v>
       </c>
       <c r="T4">
-        <v>5.909946402977185E-06</v>
+        <v>5.909946382551545E-06</v>
       </c>
       <c r="U4">
-        <v>0.7120457892409977</v>
+        <v>0.712045789197626</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>2.228342434309371E-05</v>
+        <v>2.228342436404283E-05</v>
       </c>
       <c r="B5">
-        <v>0.001446017211398888</v>
+        <v>0.001446017213495634</v>
       </c>
       <c r="C5">
-        <v>0.0007034450135600114</v>
+        <v>0.0007034450140678571</v>
       </c>
       <c r="D5">
-        <v>0.001901529265640478</v>
+        <v>0.00190152926634916</v>
       </c>
       <c r="E5">
-        <v>0.1757922925882169</v>
+        <v>0.1757922927616582</v>
       </c>
       <c r="F5">
-        <v>0.000360334164920918</v>
+        <v>0.0003603341655758295</v>
       </c>
       <c r="G5">
-        <v>8.586114507503468E-07</v>
+        <v>8.586114514333557E-07</v>
       </c>
       <c r="H5">
-        <v>4.031062342598046E-08</v>
+        <v>4.031062349495569E-08</v>
       </c>
       <c r="I5">
-        <v>0.0002633467593164912</v>
+        <v>0.0002633467599647543</v>
       </c>
       <c r="J5">
-        <v>0.0104529278195002</v>
+        <v>0.01045292783574934</v>
       </c>
       <c r="K5">
-        <v>-1.847186053373779E-05</v>
+        <v>-1.847186043186673E-05</v>
       </c>
       <c r="L5">
-        <v>6.659755078320592E-05</v>
+        <v>6.65973694078888E-05</v>
       </c>
       <c r="M5">
-        <v>0.0003001268138696004</v>
+        <v>0.0003001268138490527</v>
       </c>
       <c r="N5">
-        <v>2.762481038657837E-09</v>
+        <v>2.762481040127809E-09</v>
       </c>
       <c r="O5">
-        <v>8.802857096859025E-06</v>
+        <v>8.802857107286683E-06</v>
       </c>
       <c r="P5">
-        <v>1.053320075076455E-05</v>
+        <v>1.053320076514746E-05</v>
       </c>
       <c r="Q5">
-        <v>1.08050155360829E-05</v>
+        <v>1.080501555075226E-05</v>
       </c>
       <c r="R5">
-        <v>-2.767847804463869E-06</v>
+        <v>-2.767847799325721E-06</v>
       </c>
       <c r="S5">
-        <v>1.402905370628461E-11</v>
+        <v>1.402905211133708E-11</v>
       </c>
       <c r="T5">
-        <v>1.013618799105027E-08</v>
+        <v>1.013618800543031E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001731333292837908</v>
+        <v>0.0001731333295305438</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01709327087558821</v>
+        <v>0.01756654100508888</v>
       </c>
       <c r="B6">
-        <v>0.8038680173893764</v>
+        <v>0.9646565389763554</v>
       </c>
       <c r="C6">
-        <v>0.6344497649226785</v>
+        <v>0.6426218484131022</v>
       </c>
       <c r="D6">
-        <v>0.8557471316817099</v>
+        <v>0.8664968129423511</v>
       </c>
       <c r="E6">
-        <v>141.1387233766266</v>
+        <v>141.5574455560298</v>
       </c>
       <c r="F6">
-        <v>0.2314324102555366</v>
+        <v>0.2746579765467348</v>
       </c>
       <c r="G6">
-        <v>0.001202595874660757</v>
+        <v>0.001292046233549699</v>
       </c>
       <c r="H6">
-        <v>2.9757243867779E-05</v>
+        <v>3.718998333941557E-05</v>
       </c>
       <c r="I6">
-        <v>0.1466627091809317</v>
+        <v>0.1688539235653138</v>
       </c>
       <c r="J6">
-        <v>15.60915431865751</v>
+        <v>15.78312299583488</v>
       </c>
       <c r="K6">
-        <v>0.04686770158369049</v>
+        <v>0.05799746408160265</v>
       </c>
       <c r="L6">
-        <v>0.143253529782291</v>
+        <v>0.1471184336105819</v>
       </c>
       <c r="M6">
-        <v>-0.04914672660705546</v>
+        <v>-0.04774249846679117</v>
       </c>
       <c r="N6">
-        <v>6.325023741337618E-07</v>
+        <v>7.185283663592732E-07</v>
       </c>
       <c r="O6">
-        <v>0.005525409853231947</v>
+        <v>0.005885703528708898</v>
       </c>
       <c r="P6">
-        <v>0.004568779648919683</v>
+        <v>0.004935220314660796</v>
       </c>
       <c r="Q6">
-        <v>0.004695398982789862</v>
+        <v>0.005075476159334883</v>
       </c>
       <c r="R6">
-        <v>0.005851685931801041</v>
+        <v>0.01184196449733733</v>
       </c>
       <c r="S6">
-        <v>1.069867812322587E-08</v>
+        <v>1.140410542555531E-08</v>
       </c>
       <c r="T6">
-        <v>8.277848342613235E-06</v>
+        <v>8.780654073489554E-06</v>
       </c>
       <c r="U6">
-        <v>0.04683977464819275</v>
+        <v>0.05547848268619235</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.001022410065572304</v>
+        <v>0.001022410067029918</v>
       </c>
       <c r="B7">
-        <v>0.16712494251503</v>
+        <v>0.1671249425888541</v>
       </c>
       <c r="C7">
-        <v>0.02542561156992196</v>
+        <v>0.02542561158537264</v>
       </c>
       <c r="D7">
-        <v>0.03525272075292617</v>
+        <v>0.03525272077585258</v>
       </c>
       <c r="E7">
-        <v>7.355646472188255</v>
+        <v>7.355646479489531</v>
       </c>
       <c r="F7">
-        <v>0.06922828450651641</v>
+        <v>0.06922828452417928</v>
       </c>
       <c r="G7">
-        <v>5.755860514387818E-05</v>
+        <v>5.755860517277807E-05</v>
       </c>
       <c r="H7">
-        <v>5.097098921960242E-06</v>
+        <v>5.097098926776161E-06</v>
       </c>
       <c r="I7">
-        <v>0.01405179595999194</v>
+        <v>0.01405179598786306</v>
       </c>
       <c r="J7">
-        <v>0.3317613419157432</v>
+        <v>0.3317613424555118</v>
       </c>
       <c r="K7">
-        <v>0.002150464181243083</v>
+        <v>0.002150464185997258</v>
       </c>
       <c r="L7">
-        <v>0.001500136533273381</v>
+        <v>0.001500144037027387</v>
       </c>
       <c r="M7">
-        <v>0.006047829512015039</v>
+        <v>0.006047829507813987</v>
       </c>
       <c r="N7">
-        <v>6.892006725195326E-08</v>
+        <v>6.892006736347288E-08</v>
       </c>
       <c r="O7">
-        <v>0.0004143913472807571</v>
+        <v>0.0004143913478837219</v>
       </c>
       <c r="P7">
-        <v>0.0003686160839622599</v>
+        <v>0.0003686160852305491</v>
       </c>
       <c r="Q7">
-        <v>0.0003943382337682947</v>
+        <v>0.0003943382350213585</v>
       </c>
       <c r="R7">
-        <v>0.001892874626378654</v>
+        <v>0.001892874626353309</v>
       </c>
       <c r="S7">
-        <v>8.929309301260583E-10</v>
+        <v>8.929309975278546E-10</v>
       </c>
       <c r="T7">
-        <v>5.423183336684641E-07</v>
+        <v>5.423183343325037E-07</v>
       </c>
       <c r="U7">
-        <v>0.02615081597665678</v>
+        <v>0.02615081598326009</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.005772319485518069</v>
+        <v>0.005772319453953022</v>
       </c>
       <c r="B8">
-        <v>2.224921675424389</v>
+        <v>2.224921686054056</v>
       </c>
       <c r="C8">
-        <v>0.06086610462335819</v>
+        <v>0.06086610570933178</v>
       </c>
       <c r="D8">
-        <v>0.08128839376916125</v>
+        <v>0.08128839506339265</v>
       </c>
       <c r="E8">
-        <v>7.53824375897415</v>
+        <v>7.538243557353505</v>
       </c>
       <c r="F8">
-        <v>1.300874182886357</v>
+        <v>1.30087418573516</v>
       </c>
       <c r="G8">
-        <v>0.0006950721193059339</v>
+        <v>0.0006950721266473825</v>
       </c>
       <c r="H8">
-        <v>0.0001565284555081347</v>
+        <v>0.0001565284557105473</v>
       </c>
       <c r="I8">
-        <v>0.06745110994287613</v>
+        <v>0.06745111138551796</v>
       </c>
       <c r="J8">
-        <v>1.659919541800848</v>
+        <v>1.659919534609603</v>
       </c>
       <c r="K8">
-        <v>0.08998677121669542</v>
+        <v>0.08998677105665474</v>
       </c>
       <c r="L8">
-        <v>0.6312150301240183</v>
+        <v>0.6312149527268847</v>
       </c>
       <c r="M8">
-        <v>0.003212259399175529</v>
+        <v>0.003212260190374239</v>
       </c>
       <c r="N8">
-        <v>6.293643554392366E-07</v>
+        <v>6.293643581281464E-07</v>
       </c>
       <c r="O8">
-        <v>0.003389902803703906</v>
+        <v>0.003389902818170813</v>
       </c>
       <c r="P8">
-        <v>0.005516683457092263</v>
+        <v>0.005516683497242545</v>
       </c>
       <c r="Q8">
-        <v>0.006030270393920763</v>
+        <v>0.006030270434962229</v>
       </c>
       <c r="R8">
-        <v>0.0423337939926311</v>
+        <v>0.04233379406893466</v>
       </c>
       <c r="S8">
-        <v>1.443339803837746E-08</v>
+        <v>1.443339738321778E-08</v>
       </c>
       <c r="T8">
-        <v>4.89791472309243E-06</v>
+        <v>4.897914745431672E-06</v>
       </c>
       <c r="U8">
-        <v>0.4957872292334707</v>
+        <v>0.495787229995073</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.008446596831875472</v>
+        <v>0.008446596598602576</v>
       </c>
       <c r="B9">
-        <v>0.8152284769555513</v>
+        <v>0.8152283173260132</v>
       </c>
       <c r="C9">
-        <v>0.5096467011755231</v>
+        <v>0.5096466785111307</v>
       </c>
       <c r="D9">
-        <v>0.6197107093128935</v>
+        <v>0.6197106802263007</v>
       </c>
       <c r="E9">
-        <v>34.24860640188449</v>
+        <v>34.24860334644654</v>
       </c>
       <c r="F9">
-        <v>0.1986026006117233</v>
+        <v>0.1986025294087006</v>
       </c>
       <c r="G9">
-        <v>0.0004588961790361122</v>
+        <v>0.0004588962466816052</v>
       </c>
       <c r="H9">
-        <v>0.001235671651139853</v>
+        <v>0.001235671649568642</v>
       </c>
       <c r="I9">
-        <v>0.1042438620163708</v>
+        <v>0.1042438313108317</v>
       </c>
       <c r="J9">
-        <v>4.27860840445009</v>
+        <v>4.27860817535101</v>
       </c>
       <c r="K9">
-        <v>0.01762965149036042</v>
+        <v>0.01762964656882843</v>
       </c>
       <c r="L9">
-        <v>2.822853471881623</v>
+        <v>2.822841951537709</v>
       </c>
       <c r="M9">
-        <v>0.002063283047183838</v>
+        <v>0.002063281715365835</v>
       </c>
       <c r="N9">
-        <v>1.929764477067478E-06</v>
+        <v>1.92976445826644E-06</v>
       </c>
       <c r="O9">
-        <v>0.00311594288457268</v>
+        <v>0.003115942964168592</v>
       </c>
       <c r="P9">
-        <v>0.007495162215503401</v>
+        <v>0.007495161833675911</v>
       </c>
       <c r="Q9">
-        <v>0.007669981690440141</v>
+        <v>0.007669981151367572</v>
       </c>
       <c r="R9">
-        <v>0.008047584557353023</v>
+        <v>0.008047584482123556</v>
       </c>
       <c r="S9">
-        <v>3.121155951419055E-08</v>
+        <v>3.121145667681928E-08</v>
       </c>
       <c r="T9">
-        <v>4.062328286381636E-06</v>
+        <v>4.062328033652345E-06</v>
       </c>
       <c r="U9">
-        <v>0.05658618584080857</v>
+        <v>0.05658615187522324</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0005038162838525915</v>
+        <v>3.708647575304586E-05</v>
       </c>
       <c r="B10">
-        <v>0.04535207926680944</v>
+        <v>0.003338416358250172</v>
       </c>
       <c r="C10">
-        <v>0.03395248642696888</v>
+        <v>0.002499280121348404</v>
       </c>
       <c r="D10">
-        <v>0.04139776070214166</v>
+        <v>0.003047335002099158</v>
       </c>
       <c r="E10">
-        <v>2.154164020355501</v>
+        <v>0.1585703930356587</v>
       </c>
       <c r="F10">
-        <v>0.01042091457889873</v>
+        <v>0.0007670948067031236</v>
       </c>
       <c r="G10">
-        <v>1.981530013685165E-05</v>
+        <v>1.458626648509466E-06</v>
       </c>
       <c r="H10">
-        <v>1.74816459541689E-06</v>
+        <v>1.286843407990677E-07</v>
       </c>
       <c r="I10">
-        <v>0.007023573052499541</v>
+        <v>0.0005170128814814835</v>
       </c>
       <c r="J10">
-        <v>0.2679148362062361</v>
+        <v>0.01972150796041519</v>
       </c>
       <c r="K10">
-        <v>0.0002185182940498065</v>
+        <v>1.608534916634321E-05</v>
       </c>
       <c r="L10">
-        <v>0.1786632070764052</v>
+        <v>0.0131516129833929</v>
       </c>
       <c r="M10">
-        <v>3.117716680930259E-05</v>
+        <v>2.294988757437583E-06</v>
       </c>
       <c r="N10">
-        <v>1.748270715853646E-07</v>
+        <v>1.286921465698321E-08</v>
       </c>
       <c r="O10">
-        <v>0.0001756765744907634</v>
+        <v>1.293174847123674E-05</v>
       </c>
       <c r="P10">
-        <v>0.0004744203803347026</v>
+        <v>3.492260953879227E-05</v>
       </c>
       <c r="Q10">
-        <v>0.0004852715974979582</v>
+        <v>3.572137897680728E-05</v>
       </c>
       <c r="R10">
-        <v>0.0004213184372306978</v>
+        <v>3.101371859094197E-05</v>
       </c>
       <c r="S10">
-        <v>1.946320061771894E-09</v>
+        <v>1.432709204184066E-10</v>
       </c>
       <c r="T10">
-        <v>2.383671061951861E-07</v>
+        <v>1.754646675324546E-08</v>
       </c>
       <c r="U10">
-        <v>0.00323165887926589</v>
+        <v>0.0002378858529676791</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736670235169452</v>
+        <v>0.0003736669175005786</v>
       </c>
       <c r="B11">
-        <v>0.03547839131957949</v>
+        <v>0.03547837511985237</v>
       </c>
       <c r="C11">
-        <v>0.01735694913839778</v>
+        <v>0.01735694597852554</v>
       </c>
       <c r="D11">
-        <v>0.02142888674194084</v>
+        <v>0.02142888248315947</v>
       </c>
       <c r="E11">
-        <v>1.087724672901623</v>
+        <v>1.087723962058916</v>
       </c>
       <c r="F11">
-        <v>0.008745847221052086</v>
+        <v>0.008745842332305926</v>
       </c>
       <c r="G11">
-        <v>1.429857814187921E-05</v>
+        <v>1.429857412803154E-05</v>
       </c>
       <c r="H11">
-        <v>1.527606189122752E-06</v>
+        <v>1.527605824364738E-06</v>
       </c>
       <c r="I11">
-        <v>0.00532953376270526</v>
+        <v>0.005329531552740126</v>
       </c>
       <c r="J11">
-        <v>0.1728108978226714</v>
+        <v>0.1728108257564777</v>
       </c>
       <c r="K11">
-        <v>8.878998719723378E-05</v>
+        <v>8.878961365698283E-05</v>
       </c>
       <c r="L11">
-        <v>0.1748642705707309</v>
+        <v>0.1748632054182863</v>
       </c>
       <c r="M11">
-        <v>0.0004609133926037207</v>
+        <v>0.0004609133733843509</v>
       </c>
       <c r="N11">
-        <v>1.678931467104865E-07</v>
+        <v>1.678931423053341E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001317687008462063</v>
+        <v>0.0001317686670385481</v>
       </c>
       <c r="P11">
-        <v>0.0004362982530372291</v>
+        <v>0.0004362981979440781</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788729177277</v>
+        <v>0.0004458788109646718</v>
       </c>
       <c r="R11">
-        <v>0.0003881229393803556</v>
+        <v>0.0003881228880541493</v>
       </c>
       <c r="S11">
-        <v>1.822862672748578E-09</v>
+        <v>1.822853128416736E-09</v>
       </c>
       <c r="T11">
-        <v>1.742287661934969E-07</v>
+        <v>1.742287059981222E-07</v>
       </c>
       <c r="U11">
-        <v>0.002905565998991143</v>
+        <v>0.002905564278743901</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.22424781925818E-05</v>
+        <v>7.224247891388129E-05</v>
       </c>
       <c r="B12">
-        <v>0.04340679326113377</v>
+        <v>0.04340679317283334</v>
       </c>
       <c r="C12">
-        <v>0.001952532053386687</v>
+        <v>0.001952532069855183</v>
       </c>
       <c r="D12">
-        <v>0.002502910764079355</v>
+        <v>0.00250291078691456</v>
       </c>
       <c r="E12">
-        <v>0.1964120813444645</v>
+        <v>0.1964120883039209</v>
       </c>
       <c r="F12">
-        <v>0.01323766302288757</v>
+        <v>0.01323766300342101</v>
       </c>
       <c r="G12">
-        <v>7.602151243488368E-06</v>
+        <v>7.602151217700489E-06</v>
       </c>
       <c r="H12">
-        <v>6.696429425861857E-07</v>
+        <v>6.696429416443487E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007412120666117029</v>
+        <v>0.0007412120724212614</v>
       </c>
       <c r="J12">
-        <v>0.02944734009253476</v>
+        <v>0.02944734060816499</v>
       </c>
       <c r="K12">
-        <v>0.003003638281533455</v>
+        <v>0.003003638318017616</v>
       </c>
       <c r="L12">
-        <v>0.01437969972046655</v>
+        <v>0.01437968805042637</v>
       </c>
       <c r="M12">
-        <v>4.673569124062352E-05</v>
+        <v>4.673569580599905E-05</v>
       </c>
       <c r="N12">
-        <v>2.328325718858755E-08</v>
+        <v>2.328325723080917E-08</v>
       </c>
       <c r="O12">
-        <v>4.418555661598344E-05</v>
+        <v>4.418555659846729E-05</v>
       </c>
       <c r="P12">
-        <v>9.640463469202553E-05</v>
+        <v>9.640463435195628E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812390190005</v>
+        <v>0.0001018812385079406</v>
       </c>
       <c r="R12">
-        <v>0.0001275625091594835</v>
+        <v>0.0001275625089639632</v>
       </c>
       <c r="S12">
-        <v>2.864811257604108E-10</v>
+        <v>2.864810220845633E-10</v>
       </c>
       <c r="T12">
-        <v>7.764474421191339E-08</v>
+        <v>7.764474425501488E-08</v>
       </c>
       <c r="U12">
-        <v>0.004517339855429468</v>
+        <v>0.004517339853083551</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0002400585037810438</v>
+        <v>0.0002400585014105117</v>
       </c>
       <c r="B13">
-        <v>0.1932148933446389</v>
+        <v>0.1932148926410103</v>
       </c>
       <c r="C13">
-        <v>0.005356596889718426</v>
+        <v>0.005356596760736793</v>
       </c>
       <c r="D13">
-        <v>0.009062752362186283</v>
+        <v>0.009062752200762679</v>
       </c>
       <c r="E13">
-        <v>3.722526486475516</v>
+        <v>3.722526485160542</v>
       </c>
       <c r="F13">
-        <v>0.06151576173643795</v>
+        <v>0.06151576155376447</v>
       </c>
       <c r="G13">
-        <v>1.936117975267967E-05</v>
+        <v>1.936117944132456E-05</v>
       </c>
       <c r="H13">
-        <v>5.244946176624317E-06</v>
+        <v>5.244946141988388E-06</v>
       </c>
       <c r="I13">
-        <v>0.002569847226832677</v>
+        <v>0.002569847232961662</v>
       </c>
       <c r="J13">
-        <v>0.163323170017404</v>
+        <v>0.1633231691469162</v>
       </c>
       <c r="K13">
-        <v>0.0008394809416791288</v>
+        <v>0.0008394809473517817</v>
       </c>
       <c r="L13">
-        <v>0.007997817493045583</v>
+        <v>0.007997814224649376</v>
       </c>
       <c r="M13">
-        <v>0.0008360682953665105</v>
+        <v>0.0008360682632948096</v>
       </c>
       <c r="N13">
-        <v>8.612594963356223E-08</v>
+        <v>8.612594930628766E-08</v>
       </c>
       <c r="O13">
-        <v>0.0001479688967647712</v>
+        <v>0.0001479688954617708</v>
       </c>
       <c r="P13">
-        <v>0.0003069426474078642</v>
+        <v>0.0003069426450761292</v>
       </c>
       <c r="Q13">
-        <v>0.0003484561824104264</v>
+        <v>0.0003484561799167696</v>
       </c>
       <c r="R13">
-        <v>0.0002864910406288676</v>
+        <v>0.0002864910348380944</v>
       </c>
       <c r="S13">
-        <v>7.680304524626362E-10</v>
+        <v>7.680304203253043E-10</v>
       </c>
       <c r="T13">
-        <v>3.19060722953468E-07</v>
+        <v>3.190607212881939E-07</v>
       </c>
       <c r="U13">
-        <v>0.02591120977609837</v>
+        <v>0.02591120972371895</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>-0.0003027669131245893</v>
+        <v>-0.0003027669170498117</v>
       </c>
       <c r="B14">
-        <v>-2.221943825553489</v>
+        <v>-2.221943826344933</v>
       </c>
       <c r="C14">
-        <v>-0.1850631259759669</v>
+        <v>-0.1850631261027813</v>
       </c>
       <c r="D14">
-        <v>-0.2545303524168703</v>
+        <v>-0.2545303525832877</v>
       </c>
       <c r="E14">
-        <v>-4.952473595703198</v>
+        <v>-4.952473602745228</v>
       </c>
       <c r="F14">
-        <v>-0.01877483802443075</v>
+        <v>-0.01877483822928589</v>
       </c>
       <c r="G14">
-        <v>-5.135087802233818E-05</v>
+        <v>-5.135087838603866E-05</v>
       </c>
       <c r="H14">
-        <v>-1.187452123824758E-05</v>
+        <v>-1.187452128871719E-05</v>
       </c>
       <c r="I14">
-        <v>-0.04147360726057266</v>
+        <v>-0.04147360735900513</v>
       </c>
       <c r="J14">
-        <v>-2.983676689068525</v>
+        <v>-2.983676691353309</v>
       </c>
       <c r="K14">
-        <v>0.001162910126920641</v>
+        <v>0.001162910130138032</v>
       </c>
       <c r="L14">
-        <v>-0.004256705692035937</v>
+        <v>-0.004256712212514433</v>
       </c>
       <c r="M14">
-        <v>0.0001473898507889348</v>
+        <v>0.0001473898227516549</v>
       </c>
       <c r="N14">
-        <v>-4.537780376767536E-07</v>
+        <v>-4.537780378092343E-07</v>
       </c>
       <c r="O14">
-        <v>-0.0001344152430059942</v>
+        <v>-0.0001344152447377976</v>
       </c>
       <c r="P14">
-        <v>-0.0004941234998552582</v>
+        <v>-0.0004941235025544725</v>
       </c>
       <c r="Q14">
-        <v>-0.0005021256705928978</v>
+        <v>-0.0005021256735102341</v>
       </c>
       <c r="R14">
-        <v>-0.002269543441113431</v>
+        <v>-0.002269543445801144</v>
       </c>
       <c r="S14">
-        <v>-6.634298580572768E-09</v>
+        <v>-6.634298642307497E-09</v>
       </c>
       <c r="T14">
-        <v>-2.970549614505091E-06</v>
+        <v>-2.970549617189002E-06</v>
       </c>
       <c r="U14">
-        <v>-0.006767701907255281</v>
+        <v>-0.006767701967445102</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0002400585037810438</v>
+        <v>0.0002400585014105117</v>
       </c>
       <c r="B15">
-        <v>0.1932148933446389</v>
+        <v>0.1932148926410103</v>
       </c>
       <c r="C15">
-        <v>0.005356596889718426</v>
+        <v>0.005356596760736793</v>
       </c>
       <c r="D15">
-        <v>0.009062752362186283</v>
+        <v>0.009062752200762679</v>
       </c>
       <c r="E15">
-        <v>3.722526486475516</v>
+        <v>3.722526485160542</v>
       </c>
       <c r="F15">
-        <v>0.06151576173643795</v>
+        <v>0.06151576155376447</v>
       </c>
       <c r="G15">
-        <v>1.936117975267967E-05</v>
+        <v>1.936117944132456E-05</v>
       </c>
       <c r="H15">
-        <v>5.244946176624317E-06</v>
+        <v>5.244946141988388E-06</v>
       </c>
       <c r="I15">
-        <v>0.002569847226832677</v>
+        <v>0.002569847232961662</v>
       </c>
       <c r="J15">
-        <v>0.163323170017404</v>
+        <v>0.1633231691469162</v>
       </c>
       <c r="K15">
-        <v>0.0008394809416791288</v>
+        <v>0.0008394809473517817</v>
       </c>
       <c r="L15">
-        <v>0.007997817493045583</v>
+        <v>0.007997814224649376</v>
       </c>
       <c r="M15">
-        <v>0.0008360682953665105</v>
+        <v>0.0008360682632948096</v>
       </c>
       <c r="N15">
-        <v>8.612594963356223E-08</v>
+        <v>8.612594930628766E-08</v>
       </c>
       <c r="O15">
-        <v>0.0001479688967647712</v>
+        <v>0.0001479688954617708</v>
       </c>
       <c r="P15">
-        <v>0.0003069426474078642</v>
+        <v>0.0003069426450761292</v>
       </c>
       <c r="Q15">
-        <v>0.0003484561824104264</v>
+        <v>0.0003484561799167696</v>
       </c>
       <c r="R15">
-        <v>0.0002864910406288676</v>
+        <v>0.0002864910348380944</v>
       </c>
       <c r="S15">
-        <v>7.680304524626362E-10</v>
+        <v>7.680304203253043E-10</v>
       </c>
       <c r="T15">
-        <v>3.19060722953468E-07</v>
+        <v>3.190607212881939E-07</v>
       </c>
       <c r="U15">
-        <v>0.02591120977609837</v>
+        <v>0.02591120972371895</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.001127772415521393</v>
+        <v>-0.001127772402296671</v>
       </c>
       <c r="B16">
-        <v>-2.90593085056507</v>
+        <v>-2.905930848806527</v>
       </c>
       <c r="C16">
-        <v>-0.1305959600553342</v>
+        <v>-0.1305959595723447</v>
       </c>
       <c r="D16">
-        <v>-0.1881641404290202</v>
+        <v>-0.1881641397873455</v>
       </c>
       <c r="E16">
-        <v>-7.489396261563825</v>
+        <v>-7.489396189155147</v>
       </c>
       <c r="F16">
-        <v>-0.07598856639135462</v>
+        <v>-0.07598856608613638</v>
       </c>
       <c r="G16">
-        <v>-0.0002960332979826448</v>
+        <v>-0.0002960332965171573</v>
       </c>
       <c r="H16">
-        <v>-2.385709768289871E-05</v>
+        <v>-2.385709759800023E-05</v>
       </c>
       <c r="I16">
-        <v>-0.0764179801775578</v>
+        <v>-0.07641798009345993</v>
       </c>
       <c r="J16">
-        <v>-1.821205949316711</v>
+        <v>-1.821205940163467</v>
       </c>
       <c r="K16">
-        <v>0.008253626195816193</v>
+        <v>0.008253626177692293</v>
       </c>
       <c r="L16">
-        <v>-0.02760137815092479</v>
+        <v>-0.02760133142015156</v>
       </c>
       <c r="M16">
-        <v>-0.0008452762699816324</v>
+        <v>-0.0008452762043168142</v>
       </c>
       <c r="N16">
-        <v>-2.958562251024133E-07</v>
+        <v>-2.958562242276987E-07</v>
       </c>
       <c r="O16">
-        <v>-0.0006194575092856854</v>
+        <v>-0.0006194575035567657</v>
       </c>
       <c r="P16">
-        <v>-0.0008561062111982636</v>
+        <v>-0.0008561062047805187</v>
       </c>
       <c r="Q16">
-        <v>-0.0008896668929156098</v>
+        <v>-0.000889666886299409</v>
       </c>
       <c r="R16">
-        <v>-0.005094434707842253</v>
+        <v>-0.005094434692608328</v>
       </c>
       <c r="S16">
-        <v>-9.129820959386425E-09</v>
+        <v>-9.129820533779332E-09</v>
       </c>
       <c r="T16">
-        <v>-3.767397139103065E-06</v>
+        <v>-3.7673971314667E-06</v>
       </c>
       <c r="U16">
-        <v>-0.02535583586536435</v>
+        <v>-0.02535583583944866</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>3.223766937036892E-05</v>
+        <v>3.223766941679023E-05</v>
       </c>
       <c r="B17">
-        <v>0.004177932421215647</v>
+        <v>0.004177932430938834</v>
       </c>
       <c r="C17">
-        <v>0.001113009604658349</v>
+        <v>0.001113009605452247</v>
       </c>
       <c r="D17">
-        <v>0.001497187247847593</v>
+        <v>0.001497187248922228</v>
       </c>
       <c r="E17">
-        <v>0.2282113300391913</v>
+        <v>0.2282113301508181</v>
       </c>
       <c r="F17">
-        <v>0.001119529095308969</v>
+        <v>0.001119529097544877</v>
       </c>
       <c r="G17">
-        <v>2.727407245891072E-06</v>
+        <v>2.727407245847328E-06</v>
       </c>
       <c r="H17">
-        <v>3.972295532773523E-07</v>
+        <v>3.972295540109236E-07</v>
       </c>
       <c r="I17">
-        <v>0.0004958955002445638</v>
+        <v>0.0004958955014521391</v>
       </c>
       <c r="J17">
-        <v>0.02541819495821525</v>
+        <v>0.02541819498159275</v>
       </c>
       <c r="K17">
-        <v>0.0001296991490591116</v>
+        <v>0.0001296991491567203</v>
       </c>
       <c r="L17">
-        <v>0.000278403110988241</v>
+        <v>0.0002784028272978469</v>
       </c>
       <c r="M17">
-        <v>-6.446814901856992E-07</v>
+        <v>-6.446810918480291E-07</v>
       </c>
       <c r="N17">
-        <v>1.518256834238398E-09</v>
+        <v>1.518256839796487E-09</v>
       </c>
       <c r="O17">
-        <v>1.308117930304102E-05</v>
+        <v>1.308117932132138E-05</v>
       </c>
       <c r="P17">
-        <v>1.253186585380671E-05</v>
+        <v>1.253186592887837E-05</v>
       </c>
       <c r="Q17">
-        <v>1.32451872061723E-05</v>
+        <v>1.324518728781146E-05</v>
       </c>
       <c r="R17">
-        <v>2.327840177879725E-05</v>
+        <v>2.327840181495679E-05</v>
       </c>
       <c r="S17">
-        <v>2.807603285919756E-11</v>
+        <v>2.807603039047006E-11</v>
       </c>
       <c r="T17">
-        <v>1.959897430823519E-08</v>
+        <v>1.959897433824804E-08</v>
       </c>
       <c r="U17">
-        <v>0.0002862359663139945</v>
+        <v>0.0002862359672377795</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.0003172606079829792</v>
+        <v>0.0003172606075708758</v>
       </c>
       <c r="B18">
-        <v>0.0143805003884544</v>
+        <v>0.01438050035152813</v>
       </c>
       <c r="C18">
-        <v>0.009876110548979933</v>
+        <v>0.009876110538746787</v>
       </c>
       <c r="D18">
-        <v>0.01374714296442024</v>
+        <v>0.01374714295047931</v>
       </c>
       <c r="E18">
-        <v>3.036110622017997</v>
+        <v>3.036110619603612</v>
       </c>
       <c r="F18">
-        <v>0.003432919315295154</v>
+        <v>0.003432919307821882</v>
       </c>
       <c r="G18">
-        <v>1.637746602620446E-05</v>
+        <v>1.637746599961909E-05</v>
       </c>
       <c r="H18">
-        <v>2.97808212094744E-07</v>
+        <v>2.978082110652847E-07</v>
       </c>
       <c r="I18">
-        <v>0.004551242757164648</v>
+        <v>0.004551242755248134</v>
       </c>
       <c r="J18">
-        <v>0.1109958649225089</v>
+        <v>0.1109958646670676</v>
       </c>
       <c r="K18">
-        <v>5.684868911858711E-05</v>
+        <v>5.684868955049453E-05</v>
       </c>
       <c r="L18">
-        <v>0.0005643990596036611</v>
+        <v>0.0005643987657930669</v>
       </c>
       <c r="M18">
-        <v>0.002545944302353743</v>
+        <v>0.002545944302018095</v>
       </c>
       <c r="N18">
-        <v>4.247286107728718E-09</v>
+        <v>4.247286101358165E-09</v>
       </c>
       <c r="O18">
-        <v>0.0001205650678576756</v>
+        <v>0.0001205650677168277</v>
       </c>
       <c r="P18">
-        <v>5.354748265620057E-05</v>
+        <v>5.354748255618274E-05</v>
       </c>
       <c r="Q18">
-        <v>5.566771321245971E-05</v>
+        <v>5.566771310358528E-05</v>
       </c>
       <c r="R18">
-        <v>-3.593767022744556E-05</v>
+        <v>-3.593767042670304E-05</v>
       </c>
       <c r="S18">
-        <v>1.736566454110415E-10</v>
+        <v>1.736566425442301E-10</v>
       </c>
       <c r="T18">
-        <v>1.294725186068439E-07</v>
+        <v>1.294725184190174E-07</v>
       </c>
       <c r="U18">
-        <v>0.001277530635472977</v>
+        <v>0.001277530634316128</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.003211433252731628</v>
+        <v>0.003211432883489487</v>
       </c>
       <c r="B19">
-        <v>1.192351068543833</v>
+        <v>1.192351056235496</v>
       </c>
       <c r="C19">
-        <v>0.04087487179738504</v>
+        <v>0.0408748661296731</v>
       </c>
       <c r="D19">
-        <v>0.05159469948730738</v>
+        <v>0.05159469131668925</v>
       </c>
       <c r="E19">
-        <v>7.351983819019087</v>
+        <v>7.351981293840777</v>
       </c>
       <c r="F19">
-        <v>0.2589782425009023</v>
+        <v>0.2589782398401526</v>
       </c>
       <c r="G19">
-        <v>0.0005037090540478611</v>
+        <v>0.0005037090446129211</v>
       </c>
       <c r="H19">
-        <v>-0.002462599941950387</v>
+        <v>-0.002462599943228602</v>
       </c>
       <c r="I19">
-        <v>0.02425252760638862</v>
+        <v>0.02425252419013557</v>
       </c>
       <c r="J19">
-        <v>2.397394012043875</v>
+        <v>2.397393782987128</v>
       </c>
       <c r="K19">
-        <v>0.05817103565542376</v>
+        <v>0.05817103488801082</v>
       </c>
       <c r="L19">
-        <v>2.002549866353635</v>
+        <v>2.002549225181248</v>
       </c>
       <c r="M19">
-        <v>0.001342251072751922</v>
+        <v>0.001342252845777806</v>
       </c>
       <c r="N19">
-        <v>3.000385302091284E-07</v>
+        <v>3.000385074134889E-07</v>
       </c>
       <c r="O19">
-        <v>0.002814345980293518</v>
+        <v>0.002814345885801903</v>
       </c>
       <c r="P19">
-        <v>0.004199702832917546</v>
+        <v>0.00419970270257483</v>
       </c>
       <c r="Q19">
-        <v>0.004308237701154721</v>
+        <v>0.004308237569290949</v>
       </c>
       <c r="R19">
-        <v>0.06643524723936578</v>
+        <v>0.06643524717294653</v>
       </c>
       <c r="S19">
-        <v>2.278455607833398E-08</v>
+        <v>2.278455021714447E-08</v>
       </c>
       <c r="T19">
-        <v>3.655687306329437E-06</v>
+        <v>3.655687171775267E-06</v>
       </c>
       <c r="U19">
-        <v>0.08608849771257557</v>
+        <v>0.08608849735367413</v>
       </c>
     </row>
   </sheetData>

--- a/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
@@ -507,1172 +507,1172 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.006729444714843848</v>
+        <v>0.006729444697156826</v>
       </c>
       <c r="B2">
-        <v>0.5968890241348194</v>
+        <v>0.5968889673026943</v>
       </c>
       <c r="C2">
-        <v>0.290697258962077</v>
+        <v>0.2906972634326919</v>
       </c>
       <c r="D2">
-        <v>0.3462557094795982</v>
+        <v>0.3462557148231494</v>
       </c>
       <c r="E2">
-        <v>24.60475448528398</v>
+        <v>24.60475465434519</v>
       </c>
       <c r="F2">
-        <v>0.1517400646658244</v>
+        <v>0.1517400455617437</v>
       </c>
       <c r="G2">
-        <v>-0.0001369527196907644</v>
+        <v>-0.0001369527125210425</v>
       </c>
       <c r="H2">
-        <v>0.001303791153347196</v>
+        <v>0.001303791152472131</v>
       </c>
       <c r="I2">
-        <v>0.04135145700558483</v>
+        <v>0.04135145266663041</v>
       </c>
       <c r="J2">
-        <v>1.688176545220948</v>
+        <v>1.688176561442053</v>
       </c>
       <c r="K2">
-        <v>0.01250490232902521</v>
+        <v>0.01250490033962795</v>
       </c>
       <c r="L2">
-        <v>2.105682212436354</v>
+        <v>2.105688837734468</v>
       </c>
       <c r="M2">
-        <v>0.003254155078836801</v>
+        <v>0.003254154333503773</v>
       </c>
       <c r="N2">
-        <v>-1.427482334074166E-06</v>
+        <v>-1.427482347931088E-06</v>
       </c>
       <c r="O2">
-        <v>0.002721457321524386</v>
+        <v>0.002721457311951829</v>
       </c>
       <c r="P2">
-        <v>0.00503939609136558</v>
+        <v>0.005039395930450843</v>
       </c>
       <c r="Q2">
-        <v>0.005147148514999522</v>
+        <v>0.005147148322015679</v>
       </c>
       <c r="R2">
-        <v>0.006577350296557264</v>
+        <v>0.006577350192402752</v>
       </c>
       <c r="S2">
-        <v>2.286229260921443E-08</v>
+        <v>2.286235124261717E-08</v>
       </c>
       <c r="T2">
-        <v>2.804576286646759E-06</v>
+        <v>2.804576216764584E-06</v>
       </c>
       <c r="U2">
-        <v>0.02906423580601623</v>
+        <v>0.02906422778526136</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>6.449699386866484E-05</v>
+        <v>0.0005153637872317309</v>
       </c>
       <c r="B3">
-        <v>0.002019723703034036</v>
+        <v>0.04407365126233039</v>
       </c>
       <c r="C3">
-        <v>0.001748421037928708</v>
+        <v>0.02574914042356426</v>
       </c>
       <c r="D3">
-        <v>0.00241639517749037</v>
+        <v>0.03139967699617304</v>
       </c>
       <c r="E3">
-        <v>0.5627276345119683</v>
+        <v>2.316325695671528</v>
       </c>
       <c r="F3">
-        <v>0.0005970994264730407</v>
+        <v>0.01101782764793141</v>
       </c>
       <c r="G3">
-        <v>2.902514369425589E-06</v>
+        <v>1.3437354839343E-05</v>
       </c>
       <c r="H3">
-        <v>3.275734954902417E-08</v>
+        <v>7.486373081821526E-05</v>
       </c>
       <c r="I3">
-        <v>0.0005402308070769754</v>
+        <v>0.004946216273907578</v>
       </c>
       <c r="J3">
-        <v>0.05027410297519043</v>
+        <v>0.2308595388619706</v>
       </c>
       <c r="K3">
-        <v>9.0729660419996E-05</v>
+        <v>0.0009889285294365376</v>
       </c>
       <c r="L3">
-        <v>0.0004738762212937194</v>
+        <v>0.1471783164464471</v>
       </c>
       <c r="M3">
-        <v>-0.0002270305203886756</v>
+        <v>-7.215935507971719E-05</v>
       </c>
       <c r="N3">
-        <v>2.026611661583984E-09</v>
+        <v>2.267861639407232E-08</v>
       </c>
       <c r="O3">
-        <v>1.922208953595558E-05</v>
+        <v>0.0001921845398804787</v>
       </c>
       <c r="P3">
-        <v>1.511339563800837E-05</v>
+        <v>0.0003893137314174362</v>
       </c>
       <c r="Q3">
-        <v>1.551989209555403E-05</v>
+        <v>0.0003981760257649921</v>
       </c>
       <c r="R3">
-        <v>1.57060172332956E-05</v>
+        <v>0.0004498842042423925</v>
       </c>
       <c r="S3">
-        <v>3.537321521081128E-11</v>
+        <v>1.645776036956675E-09</v>
       </c>
       <c r="T3">
-        <v>2.724177090435862E-08</v>
+        <v>2.320837237285736E-07</v>
       </c>
       <c r="U3">
-        <v>0.0001049276240050126</v>
+        <v>0.002680417068394435</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006992716124872204</v>
+        <v>0.006992716169468604</v>
       </c>
       <c r="B4">
-        <v>2.903410318825967</v>
+        <v>2.903410317259439</v>
       </c>
       <c r="C4">
-        <v>0.07038871912546796</v>
+        <v>0.0703887195060261</v>
       </c>
       <c r="D4">
-        <v>0.09440797898428616</v>
+        <v>0.09440797965049126</v>
       </c>
       <c r="E4">
-        <v>8.341453224395593</v>
+        <v>8.341453671392946</v>
       </c>
       <c r="F4">
-        <v>1.848787729414842</v>
+        <v>1.848787729038111</v>
       </c>
       <c r="G4">
-        <v>0.0007213160999065534</v>
+        <v>0.000721316100088187</v>
       </c>
       <c r="H4">
-        <v>0.0001023750981049937</v>
+        <v>0.000102375097953039</v>
       </c>
       <c r="I4">
-        <v>0.08131586618215129</v>
+        <v>0.0813158675768732</v>
       </c>
       <c r="J4">
-        <v>1.69432370406276</v>
+        <v>1.694323737969347</v>
       </c>
       <c r="K4">
-        <v>0.1197926434468261</v>
+        <v>0.119792643322514</v>
       </c>
       <c r="L4">
-        <v>0.1250211714491735</v>
+        <v>0.1250209479787639</v>
       </c>
       <c r="M4">
-        <v>0.003473829537712204</v>
+        <v>0.003473829030251146</v>
       </c>
       <c r="N4">
-        <v>4.730718267972694E-07</v>
+        <v>4.730718260739864E-07</v>
       </c>
       <c r="O4">
-        <v>0.003900919269956768</v>
+        <v>0.003900919281495695</v>
       </c>
       <c r="P4">
-        <v>0.006715645291755327</v>
+        <v>0.006715645300494162</v>
       </c>
       <c r="Q4">
-        <v>0.007422234032959725</v>
+        <v>0.007422234042040109</v>
       </c>
       <c r="R4">
-        <v>0.04519907283276227</v>
+        <v>0.04519907279605725</v>
       </c>
       <c r="S4">
-        <v>1.231829261416778E-08</v>
+        <v>1.231829064228026E-08</v>
       </c>
       <c r="T4">
-        <v>5.909946382551545E-06</v>
+        <v>5.909946400619852E-06</v>
       </c>
       <c r="U4">
-        <v>0.712045789197626</v>
+        <v>0.7120457890565218</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>2.228342436404283E-05</v>
+        <v>2.228342432526147E-05</v>
       </c>
       <c r="B5">
-        <v>0.001446017213495634</v>
+        <v>0.001446017211208925</v>
       </c>
       <c r="C5">
-        <v>0.0007034450140678571</v>
+        <v>0.0007034450132892786</v>
       </c>
       <c r="D5">
-        <v>0.00190152926634916</v>
+        <v>0.001901529265237749</v>
       </c>
       <c r="E5">
-        <v>0.1757922927616582</v>
+        <v>0.1757922924423924</v>
       </c>
       <c r="F5">
-        <v>0.0003603341655758295</v>
+        <v>0.0003603341649364624</v>
       </c>
       <c r="G5">
-        <v>8.586114514333557E-07</v>
+        <v>8.586114505383465E-07</v>
       </c>
       <c r="H5">
-        <v>4.031062349495569E-08</v>
+        <v>4.031062347864709E-08</v>
       </c>
       <c r="I5">
-        <v>0.0002633467599647543</v>
+        <v>0.0002633467592604296</v>
       </c>
       <c r="J5">
-        <v>0.01045292783574934</v>
+        <v>0.01045292780765348</v>
       </c>
       <c r="K5">
-        <v>-1.847186043186673E-05</v>
+        <v>-1.847186051479672E-05</v>
       </c>
       <c r="L5">
-        <v>6.65973694078888E-05</v>
+        <v>6.659734352215731E-05</v>
       </c>
       <c r="M5">
-        <v>0.0003001268138490527</v>
+        <v>0.0003001268140134791</v>
       </c>
       <c r="N5">
-        <v>2.762481040127809E-09</v>
+        <v>2.762481039375305E-09</v>
       </c>
       <c r="O5">
-        <v>8.802857107286683E-06</v>
+        <v>8.802857096501362E-06</v>
       </c>
       <c r="P5">
-        <v>1.053320076514746E-05</v>
+        <v>1.053320075520928E-05</v>
       </c>
       <c r="Q5">
-        <v>1.080501555075226E-05</v>
+        <v>1.080501554014964E-05</v>
       </c>
       <c r="R5">
-        <v>-2.767847799325721E-06</v>
+        <v>-2.767847798685744E-06</v>
       </c>
       <c r="S5">
-        <v>1.402905211133708E-11</v>
+        <v>1.402905186066337E-11</v>
       </c>
       <c r="T5">
-        <v>1.013618800543031E-08</v>
+        <v>1.013618798778908E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001731333295305438</v>
+        <v>0.00017313332933227</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01756654100508888</v>
+        <v>0.017566541172881</v>
       </c>
       <c r="B6">
-        <v>0.9646565389763554</v>
+        <v>0.9646565550202538</v>
       </c>
       <c r="C6">
-        <v>0.6426218484131022</v>
+        <v>0.6426218527467251</v>
       </c>
       <c r="D6">
-        <v>0.8664968129423511</v>
+        <v>0.8664968188127218</v>
       </c>
       <c r="E6">
-        <v>141.5574455560298</v>
+        <v>141.557446557899</v>
       </c>
       <c r="F6">
-        <v>0.2746579765467348</v>
+        <v>0.2746579800945439</v>
       </c>
       <c r="G6">
-        <v>0.001292046233549699</v>
+        <v>0.001292046244655325</v>
       </c>
       <c r="H6">
-        <v>3.718998333941557E-05</v>
+        <v>3.718998408651533E-05</v>
       </c>
       <c r="I6">
-        <v>0.1688539235653138</v>
+        <v>0.1688539249124067</v>
       </c>
       <c r="J6">
-        <v>15.78312299583488</v>
+        <v>15.7831231011708</v>
       </c>
       <c r="K6">
-        <v>0.05799746408160265</v>
+        <v>0.05799746421320202</v>
       </c>
       <c r="L6">
-        <v>0.1471184336105819</v>
+        <v>0.147118550229989</v>
       </c>
       <c r="M6">
-        <v>-0.04774249846679117</v>
+        <v>-0.04774249846773665</v>
       </c>
       <c r="N6">
-        <v>7.185283663592732E-07</v>
+        <v>7.185283744412858E-07</v>
       </c>
       <c r="O6">
-        <v>0.005885703528708898</v>
+        <v>0.005885703590216259</v>
       </c>
       <c r="P6">
-        <v>0.004935220314660796</v>
+        <v>0.004935220385614837</v>
       </c>
       <c r="Q6">
-        <v>0.005075476159334883</v>
+        <v>0.005075476231526235</v>
       </c>
       <c r="R6">
-        <v>0.01184196449733733</v>
+        <v>0.01184196459971396</v>
       </c>
       <c r="S6">
-        <v>1.140410542555531E-08</v>
+        <v>1.140410657305694E-08</v>
       </c>
       <c r="T6">
-        <v>8.780654073489554E-06</v>
+        <v>8.780654155787251E-06</v>
       </c>
       <c r="U6">
-        <v>0.05547848268619235</v>
+        <v>0.05547848335611903</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.001022410067029918</v>
+        <v>0.001022410061026684</v>
       </c>
       <c r="B7">
-        <v>0.1671249425888541</v>
+        <v>0.1671249421909153</v>
       </c>
       <c r="C7">
-        <v>0.02542561158537264</v>
+        <v>0.0254256114577045</v>
       </c>
       <c r="D7">
-        <v>0.03525272077585258</v>
+        <v>0.03525272059820508</v>
       </c>
       <c r="E7">
-        <v>7.355646479489531</v>
+        <v>7.355646436937161</v>
       </c>
       <c r="F7">
-        <v>0.06922828452417928</v>
+        <v>0.06922828442511002</v>
       </c>
       <c r="G7">
-        <v>5.755860517277807E-05</v>
+        <v>5.755860492232903E-05</v>
       </c>
       <c r="H7">
-        <v>5.097098926776161E-06</v>
+        <v>5.09709891677213E-06</v>
       </c>
       <c r="I7">
-        <v>0.01405179598786306</v>
+        <v>0.01405179591631797</v>
       </c>
       <c r="J7">
-        <v>0.3317613424555118</v>
+        <v>0.3317613386188806</v>
       </c>
       <c r="K7">
-        <v>0.002150464185997258</v>
+        <v>0.002150464177895395</v>
       </c>
       <c r="L7">
-        <v>0.001500144037027387</v>
+        <v>0.001500120914784165</v>
       </c>
       <c r="M7">
-        <v>0.006047829507813987</v>
+        <v>0.006047829521076568</v>
       </c>
       <c r="N7">
-        <v>6.892006736347288E-08</v>
+        <v>6.892006716844612E-08</v>
       </c>
       <c r="O7">
-        <v>0.0004143913478837219</v>
+        <v>0.0004143913459812324</v>
       </c>
       <c r="P7">
-        <v>0.0003686160852305491</v>
+        <v>0.0003686160834084612</v>
       </c>
       <c r="Q7">
-        <v>0.0003943382350213585</v>
+        <v>0.0003943382331395769</v>
       </c>
       <c r="R7">
-        <v>0.001892874626353309</v>
+        <v>0.001892874625000783</v>
       </c>
       <c r="S7">
-        <v>8.929309975278546E-10</v>
+        <v>8.929307888880458E-10</v>
       </c>
       <c r="T7">
-        <v>5.423183343325037E-07</v>
+        <v>5.423183316521192E-07</v>
       </c>
       <c r="U7">
-        <v>0.02615081598326009</v>
+        <v>0.0261508159599791</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.005772319453953022</v>
+        <v>0.005772319471172474</v>
       </c>
       <c r="B8">
-        <v>2.224921686054056</v>
+        <v>2.224921684943086</v>
       </c>
       <c r="C8">
-        <v>0.06086610570933178</v>
+        <v>0.06086610609472806</v>
       </c>
       <c r="D8">
-        <v>0.08128839506339265</v>
+        <v>0.08128839566052254</v>
       </c>
       <c r="E8">
-        <v>7.538243557353505</v>
+        <v>7.5382438292594</v>
       </c>
       <c r="F8">
-        <v>1.30087418573516</v>
+        <v>1.300874185365511</v>
       </c>
       <c r="G8">
-        <v>0.0006950721266473825</v>
+        <v>0.000695072127842595</v>
       </c>
       <c r="H8">
-        <v>0.0001565284557105473</v>
+        <v>0.0001565284556828701</v>
       </c>
       <c r="I8">
-        <v>0.06745111138551796</v>
+        <v>0.06745111221934687</v>
       </c>
       <c r="J8">
-        <v>1.659919534609603</v>
+        <v>1.659919557136706</v>
       </c>
       <c r="K8">
-        <v>0.08998677105665474</v>
+        <v>0.08998677133209405</v>
       </c>
       <c r="L8">
-        <v>0.6312149527268847</v>
+        <v>0.63121449115831</v>
       </c>
       <c r="M8">
-        <v>0.003212260190374239</v>
+        <v>0.00321225977431946</v>
       </c>
       <c r="N8">
-        <v>6.293643581281464E-07</v>
+        <v>6.293643580968192E-07</v>
       </c>
       <c r="O8">
-        <v>0.003389902818170813</v>
+        <v>0.003389902824780534</v>
       </c>
       <c r="P8">
-        <v>0.005516683497242545</v>
+        <v>0.005516683500494814</v>
       </c>
       <c r="Q8">
-        <v>0.006030270434962229</v>
+        <v>0.006030270438191787</v>
       </c>
       <c r="R8">
-        <v>0.04233379406893466</v>
+        <v>0.04233379405403003</v>
       </c>
       <c r="S8">
-        <v>1.443339738321778E-08</v>
+        <v>1.443339329119398E-08</v>
       </c>
       <c r="T8">
-        <v>4.897914745431672E-06</v>
+        <v>4.897914756424789E-06</v>
       </c>
       <c r="U8">
-        <v>0.495787229995073</v>
+        <v>0.4957872297639011</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.008446596598602576</v>
+        <v>0.008446597036713934</v>
       </c>
       <c r="B9">
-        <v>0.8152283173260132</v>
+        <v>0.8152282895183173</v>
       </c>
       <c r="C9">
-        <v>0.5096466785111307</v>
+        <v>0.5096466953782191</v>
       </c>
       <c r="D9">
-        <v>0.6197106802263007</v>
+        <v>0.6197107021772097</v>
       </c>
       <c r="E9">
-        <v>34.24860334644654</v>
+        <v>34.24860625807681</v>
       </c>
       <c r="F9">
-        <v>0.1986025294087006</v>
+        <v>0.1986025156343691</v>
       </c>
       <c r="G9">
-        <v>0.0004588962466816052</v>
+        <v>0.0004588962838283131</v>
       </c>
       <c r="H9">
-        <v>0.001235671649568642</v>
+        <v>0.001235671650312428</v>
       </c>
       <c r="I9">
-        <v>0.1042438313108317</v>
+        <v>0.1042438312934738</v>
       </c>
       <c r="J9">
-        <v>4.27860817535101</v>
+        <v>4.278608480373189</v>
       </c>
       <c r="K9">
-        <v>0.01762964656882843</v>
+        <v>0.01762964546813408</v>
       </c>
       <c r="L9">
-        <v>2.822841951537709</v>
+        <v>2.822839941787993</v>
       </c>
       <c r="M9">
-        <v>0.002063281715365835</v>
+        <v>0.002063280772291046</v>
       </c>
       <c r="N9">
-        <v>1.92976445826644E-06</v>
+        <v>1.929764464579578E-06</v>
       </c>
       <c r="O9">
-        <v>0.003115942964168592</v>
+        <v>0.003115943123576517</v>
       </c>
       <c r="P9">
-        <v>0.007495161833675911</v>
+        <v>0.007495161839553297</v>
       </c>
       <c r="Q9">
-        <v>0.007669981151367572</v>
+        <v>0.007669981120671833</v>
       </c>
       <c r="R9">
-        <v>0.008047584482123556</v>
+        <v>0.008047584623229782</v>
       </c>
       <c r="S9">
-        <v>3.121145667681928E-08</v>
+        <v>3.121143891993343E-08</v>
       </c>
       <c r="T9">
-        <v>4.062328033652345E-06</v>
+        <v>4.062328177729354E-06</v>
       </c>
       <c r="U9">
-        <v>0.05658615187522324</v>
+        <v>0.05658614405113629</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>3.708647575304586E-05</v>
+        <v>3.708647782999255E-05</v>
       </c>
       <c r="B10">
-        <v>0.003338416358250172</v>
+        <v>0.00333841620261963</v>
       </c>
       <c r="C10">
-        <v>0.002499280121348404</v>
+        <v>0.002499280198950413</v>
       </c>
       <c r="D10">
-        <v>0.003047335002099158</v>
+        <v>0.003047335103848585</v>
       </c>
       <c r="E10">
-        <v>0.1585703930356587</v>
+        <v>0.1585704074220271</v>
       </c>
       <c r="F10">
-        <v>0.0007670948067031236</v>
+        <v>0.0007670947349959657</v>
       </c>
       <c r="G10">
-        <v>1.458626648509466E-06</v>
+        <v>1.458626811733354E-06</v>
       </c>
       <c r="H10">
-        <v>1.286843407990677E-07</v>
+        <v>1.286843429176332E-07</v>
       </c>
       <c r="I10">
-        <v>0.0005170128814814835</v>
+        <v>0.0005170128788387818</v>
       </c>
       <c r="J10">
-        <v>0.01972150796041519</v>
+        <v>0.01972150942869753</v>
       </c>
       <c r="K10">
-        <v>1.608534916634321E-05</v>
+        <v>1.608534224939427E-05</v>
       </c>
       <c r="L10">
-        <v>0.0131516129833929</v>
+        <v>0.01315162208643908</v>
       </c>
       <c r="M10">
-        <v>2.294988757437583E-06</v>
+        <v>2.294981797525352E-06</v>
       </c>
       <c r="N10">
-        <v>1.286921465698321E-08</v>
+        <v>1.286921467521265E-08</v>
       </c>
       <c r="O10">
-        <v>1.293174847123674E-05</v>
+        <v>1.293174918539583E-05</v>
       </c>
       <c r="P10">
-        <v>3.492260953879227E-05</v>
+        <v>3.492260947568567E-05</v>
       </c>
       <c r="Q10">
-        <v>3.572137897680728E-05</v>
+        <v>3.572137873242877E-05</v>
       </c>
       <c r="R10">
-        <v>3.101371859094197E-05</v>
+        <v>3.101371901718753E-05</v>
       </c>
       <c r="S10">
-        <v>1.432709204184066E-10</v>
+        <v>1.432710015341549E-10</v>
       </c>
       <c r="T10">
-        <v>1.754646675324546E-08</v>
+        <v>1.754646738395292E-08</v>
       </c>
       <c r="U10">
-        <v>0.0002378858529676791</v>
+        <v>0.000237885813940567</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736669175005786</v>
+        <v>0.000373667150241659</v>
       </c>
       <c r="B11">
-        <v>0.03547837511985237</v>
+        <v>0.03547839225584763</v>
       </c>
       <c r="C11">
-        <v>0.01735694597852554</v>
+        <v>0.01735695170468094</v>
       </c>
       <c r="D11">
-        <v>0.02142888248315947</v>
+        <v>0.02142889032101769</v>
       </c>
       <c r="E11">
-        <v>1.087723962058916</v>
+        <v>1.087725531160511</v>
       </c>
       <c r="F11">
-        <v>0.008745842332305926</v>
+        <v>0.008745845583002242</v>
       </c>
       <c r="G11">
-        <v>1.429857412803154E-05</v>
+        <v>1.429858864263493E-05</v>
       </c>
       <c r="H11">
-        <v>1.527605824364738E-06</v>
+        <v>1.527606523019114E-06</v>
       </c>
       <c r="I11">
-        <v>0.005329531552740126</v>
+        <v>0.005329534029627767</v>
       </c>
       <c r="J11">
-        <v>0.1728108257564777</v>
+        <v>0.172810981827134</v>
       </c>
       <c r="K11">
-        <v>8.878961365698283E-05</v>
+        <v>8.878979575726701E-05</v>
       </c>
       <c r="L11">
-        <v>0.1748632054182863</v>
+        <v>0.1748643634636862</v>
       </c>
       <c r="M11">
-        <v>0.0004609133733843509</v>
+        <v>0.0004609130613112553</v>
       </c>
       <c r="N11">
-        <v>1.678931423053341E-07</v>
+        <v>1.678931503803254E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001317686670385481</v>
+        <v>0.0001317687505928306</v>
       </c>
       <c r="P11">
-        <v>0.0004362981979440781</v>
+        <v>0.000436298277600567</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788109646718</v>
+        <v>0.0004458788904300724</v>
       </c>
       <c r="R11">
-        <v>0.0003881228880541493</v>
+        <v>0.0003881229810213823</v>
       </c>
       <c r="S11">
-        <v>1.822853128416736E-09</v>
+        <v>1.822863548046295E-09</v>
       </c>
       <c r="T11">
-        <v>1.742287059981222E-07</v>
+        <v>1.74228818451286E-07</v>
       </c>
       <c r="U11">
-        <v>0.002905564278743901</v>
+        <v>0.002905564603190643</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.224247891388129E-05</v>
+        <v>7.224248014810963E-05</v>
       </c>
       <c r="B12">
-        <v>0.04340679317283334</v>
+        <v>0.04340679348296385</v>
       </c>
       <c r="C12">
-        <v>0.001952532069855183</v>
+        <v>0.001952532100329711</v>
       </c>
       <c r="D12">
-        <v>0.00250291078691456</v>
+        <v>0.002502910827391426</v>
       </c>
       <c r="E12">
-        <v>0.1964120883039209</v>
+        <v>0.1964120917869607</v>
       </c>
       <c r="F12">
-        <v>0.01323766300342101</v>
+        <v>0.01323766307845315</v>
       </c>
       <c r="G12">
-        <v>7.602151217700489E-06</v>
+        <v>7.602151379939076E-06</v>
       </c>
       <c r="H12">
-        <v>6.696429416443487E-07</v>
+        <v>6.69642950174336E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007412120724212614</v>
+        <v>0.0007412120777762382</v>
       </c>
       <c r="J12">
-        <v>0.02944734060816499</v>
+        <v>0.02944734118803299</v>
       </c>
       <c r="K12">
-        <v>0.003003638318017616</v>
+        <v>0.003003638278365359</v>
       </c>
       <c r="L12">
-        <v>0.01437968805042637</v>
+        <v>0.01437969030522635</v>
       </c>
       <c r="M12">
-        <v>4.673569580599905E-05</v>
+        <v>4.673568113195529E-05</v>
       </c>
       <c r="N12">
-        <v>2.328325723080917E-08</v>
+        <v>2.32832572974002E-08</v>
       </c>
       <c r="O12">
-        <v>4.418555659846729E-05</v>
+        <v>4.418555727212191E-05</v>
       </c>
       <c r="P12">
-        <v>9.640463435195628E-05</v>
+        <v>9.640463538587292E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812385079406</v>
+        <v>0.0001018812396266531</v>
       </c>
       <c r="R12">
-        <v>0.0001275625089639632</v>
+        <v>0.0001275625107726165</v>
       </c>
       <c r="S12">
-        <v>2.864810220845633E-10</v>
+        <v>2.864810435481096E-10</v>
       </c>
       <c r="T12">
-        <v>7.764474425501488E-08</v>
+        <v>7.764474512086273E-08</v>
       </c>
       <c r="U12">
-        <v>0.004517339853083551</v>
+        <v>0.004517339865540156</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0002400585014105117</v>
+        <v>0.0002400585022664406</v>
       </c>
       <c r="B13">
-        <v>0.1932148926410103</v>
+        <v>0.1932148930019713</v>
       </c>
       <c r="C13">
-        <v>0.005356596760736793</v>
+        <v>0.005356596822122374</v>
       </c>
       <c r="D13">
-        <v>0.009062752200762679</v>
+        <v>0.009062752276223426</v>
       </c>
       <c r="E13">
-        <v>3.722526485160542</v>
+        <v>3.722526483446583</v>
       </c>
       <c r="F13">
-        <v>0.06151576155376447</v>
+        <v>0.06151576165206208</v>
       </c>
       <c r="G13">
-        <v>1.936117944132456E-05</v>
+        <v>1.936117956864681E-05</v>
       </c>
       <c r="H13">
-        <v>5.244946141988388E-06</v>
+        <v>5.244946161248245E-06</v>
       </c>
       <c r="I13">
-        <v>0.002569847232961662</v>
+        <v>0.00256984723229975</v>
       </c>
       <c r="J13">
-        <v>0.1633231691469162</v>
+        <v>0.1633231693606969</v>
       </c>
       <c r="K13">
-        <v>0.0008394809473517817</v>
+        <v>0.0008394809447199882</v>
       </c>
       <c r="L13">
-        <v>0.007997814224649376</v>
+        <v>0.007997821247893444</v>
       </c>
       <c r="M13">
-        <v>0.0008360682632948096</v>
+        <v>0.0008360682804987063</v>
       </c>
       <c r="N13">
-        <v>8.612594930628766E-08</v>
+        <v>8.612594950548477E-08</v>
       </c>
       <c r="O13">
-        <v>0.0001479688954617708</v>
+        <v>0.0001479688959867082</v>
       </c>
       <c r="P13">
-        <v>0.0003069426450761292</v>
+        <v>0.0003069426464085352</v>
       </c>
       <c r="Q13">
-        <v>0.0003484561799167696</v>
+        <v>0.0003484561813247674</v>
       </c>
       <c r="R13">
-        <v>0.0002864910348380944</v>
+        <v>0.0002864910377844535</v>
       </c>
       <c r="S13">
-        <v>7.680304203253043E-10</v>
+        <v>7.680304841588427E-10</v>
       </c>
       <c r="T13">
-        <v>3.190607212881939E-07</v>
+        <v>3.190607220076678E-07</v>
       </c>
       <c r="U13">
-        <v>0.02591120972371895</v>
+        <v>0.02591120975526327</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>-0.0003027669170498117</v>
+        <v>-0.0003027669144004831</v>
       </c>
       <c r="B14">
-        <v>-2.221943826344933</v>
+        <v>-2.221943826398587</v>
       </c>
       <c r="C14">
-        <v>-0.1850631261027813</v>
+        <v>-0.1850631260839666</v>
       </c>
       <c r="D14">
-        <v>-0.2545303525832877</v>
+        <v>-0.2545303525504079</v>
       </c>
       <c r="E14">
-        <v>-4.952473602745228</v>
+        <v>-4.952473583165762</v>
       </c>
       <c r="F14">
-        <v>-0.01877483822928589</v>
+        <v>-0.01877483826231866</v>
       </c>
       <c r="G14">
-        <v>-5.135087838603866E-05</v>
+        <v>-5.135087827428531E-05</v>
       </c>
       <c r="H14">
-        <v>-1.187452128871719E-05</v>
+        <v>-1.187452128889729E-05</v>
       </c>
       <c r="I14">
-        <v>-0.04147360735900513</v>
+        <v>-0.04147360731827519</v>
       </c>
       <c r="J14">
-        <v>-2.983676691353309</v>
+        <v>-2.98367668964816</v>
       </c>
       <c r="K14">
-        <v>0.001162910130138032</v>
+        <v>0.001162910121512658</v>
       </c>
       <c r="L14">
-        <v>-0.004256712212514433</v>
+        <v>-0.004256687227723792</v>
       </c>
       <c r="M14">
-        <v>0.0001473898227516549</v>
+        <v>0.0001473898060906207</v>
       </c>
       <c r="N14">
-        <v>-4.537780378092343E-07</v>
+        <v>-4.53778037760282E-07</v>
       </c>
       <c r="O14">
-        <v>-0.0001344152447377976</v>
+        <v>-0.000134415243816065</v>
       </c>
       <c r="P14">
-        <v>-0.0004941235025544725</v>
+        <v>-0.0004941235020476082</v>
       </c>
       <c r="Q14">
-        <v>-0.0005021256735102341</v>
+        <v>-0.0005021256731522293</v>
       </c>
       <c r="R14">
-        <v>-0.002269543445801144</v>
+        <v>-0.002269543446296482</v>
       </c>
       <c r="S14">
-        <v>-6.634298642307497E-09</v>
+        <v>-6.634298419752511E-09</v>
       </c>
       <c r="T14">
-        <v>-2.970549617189002E-06</v>
+        <v>-2.970549616136849E-06</v>
       </c>
       <c r="U14">
-        <v>-0.006767701967445102</v>
+        <v>-0.006767701989387242</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0002400585014105117</v>
+        <v>0.0002400585022664406</v>
       </c>
       <c r="B15">
-        <v>0.1932148926410103</v>
+        <v>0.1932148930019713</v>
       </c>
       <c r="C15">
-        <v>0.005356596760736793</v>
+        <v>0.005356596822122374</v>
       </c>
       <c r="D15">
-        <v>0.009062752200762679</v>
+        <v>0.009062752276223426</v>
       </c>
       <c r="E15">
-        <v>3.722526485160542</v>
+        <v>3.722526483446583</v>
       </c>
       <c r="F15">
-        <v>0.06151576155376447</v>
+        <v>0.06151576165206208</v>
       </c>
       <c r="G15">
-        <v>1.936117944132456E-05</v>
+        <v>1.936117956864681E-05</v>
       </c>
       <c r="H15">
-        <v>5.244946141988388E-06</v>
+        <v>5.244946161248245E-06</v>
       </c>
       <c r="I15">
-        <v>0.002569847232961662</v>
+        <v>0.00256984723229975</v>
       </c>
       <c r="J15">
-        <v>0.1633231691469162</v>
+        <v>0.1633231693606969</v>
       </c>
       <c r="K15">
-        <v>0.0008394809473517817</v>
+        <v>0.0008394809447199882</v>
       </c>
       <c r="L15">
-        <v>0.007997814224649376</v>
+        <v>0.007997821247893444</v>
       </c>
       <c r="M15">
-        <v>0.0008360682632948096</v>
+        <v>0.0008360682804987063</v>
       </c>
       <c r="N15">
-        <v>8.612594930628766E-08</v>
+        <v>8.612594950548477E-08</v>
       </c>
       <c r="O15">
-        <v>0.0001479688954617708</v>
+        <v>0.0001479688959867082</v>
       </c>
       <c r="P15">
-        <v>0.0003069426450761292</v>
+        <v>0.0003069426464085352</v>
       </c>
       <c r="Q15">
-        <v>0.0003484561799167696</v>
+        <v>0.0003484561813247674</v>
       </c>
       <c r="R15">
-        <v>0.0002864910348380944</v>
+        <v>0.0002864910377844535</v>
       </c>
       <c r="S15">
-        <v>7.680304203253043E-10</v>
+        <v>7.680304841588427E-10</v>
       </c>
       <c r="T15">
-        <v>3.190607212881939E-07</v>
+        <v>3.190607220076678E-07</v>
       </c>
       <c r="U15">
-        <v>0.02591120972371895</v>
+        <v>0.02591120975526327</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.001127772402296671</v>
+        <v>-0.001127772392629044</v>
       </c>
       <c r="B16">
-        <v>-2.905930848806527</v>
+        <v>-2.905930848724317</v>
       </c>
       <c r="C16">
-        <v>-0.1305959595723447</v>
+        <v>-0.1305959594701798</v>
       </c>
       <c r="D16">
-        <v>-0.1881641397873455</v>
+        <v>-0.1881641396180643</v>
       </c>
       <c r="E16">
-        <v>-7.489396189155147</v>
+        <v>-7.489396100065384</v>
       </c>
       <c r="F16">
-        <v>-0.07598856608613638</v>
+        <v>-0.07598856603554884</v>
       </c>
       <c r="G16">
-        <v>-0.0002960332965171573</v>
+        <v>-0.0002960332964995705</v>
       </c>
       <c r="H16">
-        <v>-2.385709759800023E-05</v>
+        <v>-2.385709761930012E-05</v>
       </c>
       <c r="I16">
-        <v>-0.07641798009345993</v>
+        <v>-0.07641797989497266</v>
       </c>
       <c r="J16">
-        <v>-1.821205940163467</v>
+        <v>-1.821205932822409</v>
       </c>
       <c r="K16">
-        <v>0.008253626177692293</v>
+        <v>0.008253626191870547</v>
       </c>
       <c r="L16">
-        <v>-0.02760133142015156</v>
+        <v>-0.02760139256212078</v>
       </c>
       <c r="M16">
-        <v>-0.0008452762043168142</v>
+        <v>-0.0008452762675067803</v>
       </c>
       <c r="N16">
-        <v>-2.958562242276987E-07</v>
+        <v>-2.958562241801927E-07</v>
       </c>
       <c r="O16">
-        <v>-0.0006194575035567657</v>
+        <v>-0.0006194575011828011</v>
       </c>
       <c r="P16">
-        <v>-0.0008561062047805187</v>
+        <v>-0.0008561062032999791</v>
       </c>
       <c r="Q16">
-        <v>-0.000889666886299409</v>
+        <v>-0.0008896668849045597</v>
       </c>
       <c r="R16">
-        <v>-0.005094434692608328</v>
+        <v>-0.005094434696971548</v>
       </c>
       <c r="S16">
-        <v>-9.129820533779332E-09</v>
+        <v>-9.129821072941981E-09</v>
       </c>
       <c r="T16">
-        <v>-3.7673971314667E-06</v>
+        <v>-3.767397127577186E-06</v>
       </c>
       <c r="U16">
-        <v>-0.02535583583944866</v>
+        <v>-0.02535583582017977</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>3.223766941679023E-05</v>
+        <v>3.22376693367179E-05</v>
       </c>
       <c r="B17">
-        <v>0.004177932430938834</v>
+        <v>0.004177932428706111</v>
       </c>
       <c r="C17">
-        <v>0.001113009605452247</v>
+        <v>0.001113009604043947</v>
       </c>
       <c r="D17">
-        <v>0.001497187248922228</v>
+        <v>0.001497187246866317</v>
       </c>
       <c r="E17">
-        <v>0.2282113301508181</v>
+        <v>0.2282113295140377</v>
       </c>
       <c r="F17">
-        <v>0.001119529097544877</v>
+        <v>0.001119529097570097</v>
       </c>
       <c r="G17">
-        <v>2.727407245847328E-06</v>
+        <v>2.727407241808243E-06</v>
       </c>
       <c r="H17">
-        <v>3.972295540109236E-07</v>
+        <v>3.972295539434458E-07</v>
       </c>
       <c r="I17">
-        <v>0.0004958955014521391</v>
+        <v>0.0004958955002772293</v>
       </c>
       <c r="J17">
-        <v>0.02541819498159275</v>
+        <v>0.02541819492235541</v>
       </c>
       <c r="K17">
-        <v>0.0001296991491567203</v>
+        <v>0.0001296991491403689</v>
       </c>
       <c r="L17">
-        <v>0.0002784028272978469</v>
+        <v>0.0002784029847262784</v>
       </c>
       <c r="M17">
-        <v>-6.446810918480291E-07</v>
+        <v>-6.446808906155006E-07</v>
       </c>
       <c r="N17">
-        <v>1.518256839796487E-09</v>
+        <v>1.518256838439613E-09</v>
       </c>
       <c r="O17">
-        <v>1.308117932132138E-05</v>
+        <v>1.308117929204681E-05</v>
       </c>
       <c r="P17">
-        <v>1.253186592887837E-05</v>
+        <v>1.25318659121615E-05</v>
       </c>
       <c r="Q17">
-        <v>1.324518728781146E-05</v>
+        <v>1.324518727300464E-05</v>
       </c>
       <c r="R17">
-        <v>2.327840181495679E-05</v>
+        <v>2.327840180794699E-05</v>
       </c>
       <c r="S17">
-        <v>2.807603039047006E-11</v>
+        <v>2.807603175161794E-11</v>
       </c>
       <c r="T17">
-        <v>1.959897433824804E-08</v>
+        <v>1.959897430035977E-08</v>
       </c>
       <c r="U17">
-        <v>0.0002862359672377795</v>
+        <v>0.0002862359675084524</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.0003172606075708758</v>
+        <v>0.000317260607559527</v>
       </c>
       <c r="B18">
-        <v>0.01438050035152813</v>
+        <v>0.01438050035483897</v>
       </c>
       <c r="C18">
-        <v>0.009876110538746787</v>
+        <v>0.009876110539888929</v>
       </c>
       <c r="D18">
-        <v>0.01374714295047931</v>
+        <v>0.01374714295176581</v>
       </c>
       <c r="E18">
-        <v>3.036110619603612</v>
+        <v>3.036110619178591</v>
       </c>
       <c r="F18">
-        <v>0.003432919307821882</v>
+        <v>0.003432919306647236</v>
       </c>
       <c r="G18">
-        <v>1.637746599961909E-05</v>
+        <v>1.637746601030049E-05</v>
       </c>
       <c r="H18">
-        <v>2.978082110652847E-07</v>
+        <v>2.978082115670952E-07</v>
       </c>
       <c r="I18">
-        <v>0.004551242755248134</v>
+        <v>0.004551242753002888</v>
       </c>
       <c r="J18">
-        <v>0.1109958646670676</v>
+        <v>0.1109958646530203</v>
       </c>
       <c r="K18">
-        <v>5.684868955049453E-05</v>
+        <v>5.684868889867786E-05</v>
       </c>
       <c r="L18">
-        <v>0.0005643987657930669</v>
+        <v>0.0005643998999115244</v>
       </c>
       <c r="M18">
-        <v>0.002545944302018095</v>
+        <v>0.002545944303193652</v>
       </c>
       <c r="N18">
-        <v>4.247286101358165E-09</v>
+        <v>4.247286103232592E-09</v>
       </c>
       <c r="O18">
-        <v>0.0001205650677168277</v>
+        <v>0.0001205650677357275</v>
       </c>
       <c r="P18">
-        <v>5.354748255618274E-05</v>
+        <v>5.354748256516673E-05</v>
       </c>
       <c r="Q18">
-        <v>5.566771310358528E-05</v>
+        <v>5.566771310731721E-05</v>
       </c>
       <c r="R18">
-        <v>-3.593767042670304E-05</v>
+        <v>-3.593767031765374E-05</v>
       </c>
       <c r="S18">
-        <v>1.736566425442301E-10</v>
+        <v>1.736566526220374E-10</v>
       </c>
       <c r="T18">
-        <v>1.294725184190174E-07</v>
+        <v>1.294725184235825E-07</v>
       </c>
       <c r="U18">
-        <v>0.001277530634316128</v>
+        <v>0.001277530633186681</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.003211432883489487</v>
+        <v>0.003211432698957535</v>
       </c>
       <c r="B19">
-        <v>1.192351056235496</v>
+        <v>1.19235103276486</v>
       </c>
       <c r="C19">
-        <v>0.0408748661296731</v>
+        <v>0.0408748575511218</v>
       </c>
       <c r="D19">
-        <v>0.05159469131668925</v>
+        <v>0.05159467977056928</v>
       </c>
       <c r="E19">
-        <v>7.351981293840777</v>
+        <v>7.351979367000859</v>
       </c>
       <c r="F19">
-        <v>0.2589782398401526</v>
+        <v>0.2589782349859715</v>
       </c>
       <c r="G19">
-        <v>0.0005037090446129211</v>
+        <v>0.0005037090295173091</v>
       </c>
       <c r="H19">
-        <v>-0.002462599943228602</v>
+        <v>-0.002462599942054861</v>
       </c>
       <c r="I19">
-        <v>0.02425252419013557</v>
+        <v>0.02425252069417436</v>
       </c>
       <c r="J19">
-        <v>2.397393782987128</v>
+        <v>2.397393597226613</v>
       </c>
       <c r="K19">
-        <v>0.05817103488801082</v>
+        <v>0.05817103502387221</v>
       </c>
       <c r="L19">
-        <v>2.002549225181248</v>
+        <v>2.002549069201274</v>
       </c>
       <c r="M19">
-        <v>0.001342252845777806</v>
+        <v>0.001342252270970642</v>
       </c>
       <c r="N19">
-        <v>3.000385074134889E-07</v>
+        <v>3.000385236377545E-07</v>
       </c>
       <c r="O19">
-        <v>0.002814345885801903</v>
+        <v>0.00281434581597237</v>
       </c>
       <c r="P19">
-        <v>0.00419970270257483</v>
+        <v>0.004199702712372762</v>
       </c>
       <c r="Q19">
-        <v>0.004308237569290949</v>
+        <v>0.004308237575540087</v>
       </c>
       <c r="R19">
-        <v>0.06643524717294653</v>
+        <v>0.06643524714958414</v>
       </c>
       <c r="S19">
-        <v>2.278455021714447E-08</v>
+        <v>2.278454868925333E-08</v>
       </c>
       <c r="T19">
-        <v>3.655687171775267E-06</v>
+        <v>3.655687052178562E-06</v>
       </c>
       <c r="U19">
-        <v>0.08608849735367413</v>
+        <v>0.08608849621678548</v>
       </c>
     </row>
   </sheetData>

--- a/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1172 +507,1237 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.006729444697156826</v>
+        <v>0.0007188410693638203</v>
       </c>
       <c r="B2">
-        <v>0.5968889673026943</v>
+        <v>0.247667921983642</v>
       </c>
       <c r="C2">
-        <v>0.2906972634326919</v>
+        <v>0.007819008541924573</v>
       </c>
       <c r="D2">
-        <v>0.3462557148231494</v>
+        <v>0.0103208308765014</v>
       </c>
       <c r="E2">
-        <v>24.60475465434519</v>
+        <v>0.6751939198277971</v>
       </c>
       <c r="F2">
-        <v>0.1517400455617437</v>
+        <v>0.14975979866656</v>
       </c>
       <c r="G2">
-        <v>-0.0001369527125210425</v>
+        <v>5.541603635558394E-05</v>
       </c>
       <c r="H2">
-        <v>0.001303791152472131</v>
+        <v>7.917951217020767E-06</v>
       </c>
       <c r="I2">
-        <v>0.04135145266663041</v>
+        <v>0.009957978155933637</v>
       </c>
       <c r="J2">
-        <v>1.688176561442053</v>
+        <v>0.1553442029466165</v>
       </c>
       <c r="K2">
-        <v>0.01250490033962795</v>
+        <v>0.01109665182160749</v>
       </c>
       <c r="L2">
-        <v>2.105688837734468</v>
+        <v>0.004202585808126328</v>
       </c>
       <c r="M2">
-        <v>0.003254154333503773</v>
+        <v>0.002064264921852336</v>
       </c>
       <c r="N2">
-        <v>-1.427482347931088E-06</v>
+        <v>4.733841614345213E-08</v>
       </c>
       <c r="O2">
-        <v>0.002721457311951829</v>
+        <v>0.0003099037459208717</v>
       </c>
       <c r="P2">
-        <v>0.005039395930450843</v>
+        <v>0.0005818799005640871</v>
       </c>
       <c r="Q2">
-        <v>0.005147148322015679</v>
+        <v>0.0006164943873950947</v>
       </c>
       <c r="R2">
-        <v>0.006577350192402752</v>
+        <v>0.001999873817040139</v>
       </c>
       <c r="S2">
-        <v>2.286235124261717E-08</v>
+        <v>1.01426229124802E-09</v>
       </c>
       <c r="T2">
-        <v>2.804576216764584E-06</v>
+        <v>4.981149007827225E-07</v>
       </c>
       <c r="U2">
-        <v>0.02906422778526136</v>
+        <v>0.05704845728670478</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.0005153637872317309</v>
+        <v>0.002056820162108498</v>
       </c>
       <c r="B3">
-        <v>0.04407365126233039</v>
+        <v>0.708735854342761</v>
       </c>
       <c r="C3">
-        <v>0.02574914042356426</v>
+        <v>0.0223690146190988</v>
       </c>
       <c r="D3">
-        <v>0.03139967699617304</v>
+        <v>0.02952715145445606</v>
       </c>
       <c r="E3">
-        <v>2.316325695671528</v>
+        <v>1.930445723122375</v>
       </c>
       <c r="F3">
-        <v>0.01101782764793141</v>
+        <v>0.4284511303468264</v>
       </c>
       <c r="G3">
-        <v>1.3437354839343E-05</v>
+        <v>0.0001588899820274297</v>
       </c>
       <c r="H3">
-        <v>7.486373081821526E-05</v>
+        <v>2.293561049089504E-05</v>
       </c>
       <c r="I3">
-        <v>0.004946216273907578</v>
+        <v>0.02851045517361431</v>
       </c>
       <c r="J3">
-        <v>0.2308595388619706</v>
+        <v>0.4448102353727749</v>
       </c>
       <c r="K3">
-        <v>0.0009889285294365376</v>
+        <v>0.03191441579159117</v>
       </c>
       <c r="L3">
-        <v>0.1471783164464471</v>
+        <v>0.01225291810387747</v>
       </c>
       <c r="M3">
-        <v>-7.215935507971719E-05</v>
+        <v>0.005902614870935912</v>
       </c>
       <c r="N3">
-        <v>2.267861639407232E-08</v>
+        <v>1.3579057482808E-07</v>
       </c>
       <c r="O3">
-        <v>0.0001921845398804787</v>
+        <v>0.0008865846676285235</v>
       </c>
       <c r="P3">
-        <v>0.0003893137314174362</v>
+        <v>0.001665484984633655</v>
       </c>
       <c r="Q3">
-        <v>0.0003981760257649921</v>
+        <v>0.001764860038526168</v>
       </c>
       <c r="R3">
-        <v>0.0004498842042423925</v>
+        <v>0.005755802188060175</v>
       </c>
       <c r="S3">
-        <v>1.645776036956675E-09</v>
+        <v>2.904679699746952E-09</v>
       </c>
       <c r="T3">
-        <v>2.320837237285736E-07</v>
+        <v>1.425453175820563E-06</v>
       </c>
       <c r="U3">
-        <v>0.002680417068394435</v>
+        <v>0.1631995341405314</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.006992716169468604</v>
+        <v>7.659785493073219E-05</v>
       </c>
       <c r="B4">
-        <v>2.903410317259439</v>
+        <v>0.02276016469242935</v>
       </c>
       <c r="C4">
-        <v>0.0703887195060261</v>
+        <v>0.001909640057178968</v>
       </c>
       <c r="D4">
-        <v>0.09440797965049126</v>
+        <v>0.002490734862463381</v>
       </c>
       <c r="E4">
-        <v>8.341453671392946</v>
+        <v>0.1130597939334322</v>
       </c>
       <c r="F4">
-        <v>1.848787729038111</v>
+        <v>0.006825276404407523</v>
       </c>
       <c r="G4">
-        <v>0.000721316100088187</v>
+        <v>1.372829765786034E-05</v>
       </c>
       <c r="H4">
-        <v>0.000102375097953039</v>
+        <v>2.898688439309856E-06</v>
       </c>
       <c r="I4">
-        <v>0.0813158675768732</v>
+        <v>0.001778496544495597</v>
       </c>
       <c r="J4">
-        <v>1.694323737969347</v>
+        <v>0.03749089564845728</v>
       </c>
       <c r="K4">
-        <v>0.119792643322514</v>
+        <v>0.006917810415986696</v>
       </c>
       <c r="L4">
-        <v>0.1250209479787639</v>
+        <v>0.001248097831411931</v>
       </c>
       <c r="M4">
-        <v>0.003473829030251146</v>
+        <v>0.0002834215122960944</v>
       </c>
       <c r="N4">
-        <v>4.730718260739864E-07</v>
+        <v>1.055853061768374E-08</v>
       </c>
       <c r="O4">
-        <v>0.003900919281495695</v>
+        <v>3.11302903159179E-05</v>
       </c>
       <c r="P4">
-        <v>0.006715645300494162</v>
+        <v>4.555731126211559E-05</v>
       </c>
       <c r="Q4">
-        <v>0.007422234042040109</v>
+        <v>4.833448057305939E-05</v>
       </c>
       <c r="R4">
-        <v>0.04519907279605725</v>
+        <v>0.0007223659272774915</v>
       </c>
       <c r="S4">
-        <v>1.231829064228026E-08</v>
+        <v>1.093605034514646E-10</v>
       </c>
       <c r="T4">
-        <v>5.909946400619852E-06</v>
+        <v>5.684096627771281E-08</v>
       </c>
       <c r="U4">
-        <v>0.7120457890565218</v>
+        <v>0.001966191602962182</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>2.228342432526147E-05</v>
+        <v>4.494774150834181E-05</v>
       </c>
       <c r="B5">
-        <v>0.001446017211208925</v>
+        <v>0.01333332793161536</v>
       </c>
       <c r="C5">
-        <v>0.0007034450132892786</v>
+        <v>0.00113118969260157</v>
       </c>
       <c r="D5">
-        <v>0.001901529265237749</v>
+        <v>0.001475447275778847</v>
       </c>
       <c r="E5">
-        <v>0.1757922924423924</v>
+        <v>0.06671063857447705</v>
       </c>
       <c r="F5">
-        <v>0.0003603341649364624</v>
+        <v>0.003950659365313896</v>
       </c>
       <c r="G5">
-        <v>8.586114505383465E-07</v>
+        <v>8.123884429376959E-06</v>
       </c>
       <c r="H5">
-        <v>4.031062347864709E-08</v>
+        <v>1.718841981009837E-06</v>
       </c>
       <c r="I5">
-        <v>0.0002633467592604296</v>
+        <v>0.001050012368860427</v>
       </c>
       <c r="J5">
-        <v>0.01045292780765348</v>
+        <v>0.02215486883508942</v>
       </c>
       <c r="K5">
-        <v>-1.847186051479672E-05</v>
+        <v>0.004116895788353339</v>
       </c>
       <c r="L5">
-        <v>6.659734352215731E-05</v>
+        <v>0.000741979390963771</v>
       </c>
       <c r="M5">
-        <v>0.0003001268140134791</v>
+        <v>0.0001631808149278796</v>
       </c>
       <c r="N5">
-        <v>2.762481039375305E-09</v>
+        <v>6.232933448748168E-09</v>
       </c>
       <c r="O5">
-        <v>8.802857096501362E-06</v>
+        <v>1.820546210344337E-05</v>
       </c>
       <c r="P5">
-        <v>1.053320075520928E-05</v>
+        <v>2.662834051890125E-05</v>
       </c>
       <c r="Q5">
-        <v>1.080501554014964E-05</v>
+        <v>2.824083803821364E-05</v>
       </c>
       <c r="R5">
-        <v>-2.767847798685744E-06</v>
+        <v>0.0004267269038516166</v>
       </c>
       <c r="S5">
-        <v>1.402905186066337E-11</v>
+        <v>6.423814490121799E-11</v>
       </c>
       <c r="T5">
-        <v>1.013618798778908E-08</v>
+        <v>3.335804190164459E-08</v>
       </c>
       <c r="U5">
-        <v>0.00017313332933227</v>
+        <v>0.001129587444995076</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.017566541172881</v>
+        <v>0.009244927175236688</v>
       </c>
       <c r="B6">
-        <v>0.9646565550202538</v>
+        <v>2.671091325159501</v>
       </c>
       <c r="C6">
-        <v>0.6426218527467251</v>
+        <v>0.5528633355381283</v>
       </c>
       <c r="D6">
-        <v>0.8664968188127218</v>
+        <v>0.6978899315802861</v>
       </c>
       <c r="E6">
-        <v>141.557446557899</v>
+        <v>28.38506854999915</v>
       </c>
       <c r="F6">
-        <v>0.2746579800945439</v>
+        <v>0.6839581655613456</v>
       </c>
       <c r="G6">
-        <v>0.001292046244655325</v>
+        <v>0.002701484692631423</v>
       </c>
       <c r="H6">
-        <v>3.718998408651533E-05</v>
+        <v>0.001849573450990763</v>
       </c>
       <c r="I6">
-        <v>0.1688539249124067</v>
+        <v>0.2576172795401561</v>
       </c>
       <c r="J6">
-        <v>15.7831231011708</v>
+        <v>8.056915142322909</v>
       </c>
       <c r="K6">
-        <v>0.05799746421320202</v>
+        <v>0.7222524782501005</v>
       </c>
       <c r="L6">
-        <v>0.147118550229989</v>
+        <v>0.5164372368509806</v>
       </c>
       <c r="M6">
-        <v>-0.04774249846773665</v>
+        <v>0.04237846312668849</v>
       </c>
       <c r="N6">
-        <v>7.185283744412858E-07</v>
+        <v>3.23291226410031E-06</v>
       </c>
       <c r="O6">
-        <v>0.005885703590216259</v>
+        <v>0.003220264314406627</v>
       </c>
       <c r="P6">
-        <v>0.004935220385614837</v>
+        <v>0.005711522907496771</v>
       </c>
       <c r="Q6">
-        <v>0.005075476231526235</v>
+        <v>0.005856925306594622</v>
       </c>
       <c r="R6">
-        <v>0.01184196459971396</v>
+        <v>0.04998574732677653</v>
       </c>
       <c r="S6">
-        <v>1.140410657305694E-08</v>
+        <v>1.736799394500123E-08</v>
       </c>
       <c r="T6">
-        <v>8.780654155787251E-06</v>
+        <v>7.318253871656451E-06</v>
       </c>
       <c r="U6">
-        <v>0.05547848335611903</v>
+        <v>0.1417827289126332</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.001022410061026684</v>
+        <v>0.0290224454532214</v>
       </c>
       <c r="B7">
-        <v>0.1671249421909153</v>
+        <v>6.228141697880425</v>
       </c>
       <c r="C7">
-        <v>0.0254256114577045</v>
+        <v>0.6640835469229012</v>
       </c>
       <c r="D7">
-        <v>0.03525272059820508</v>
+        <v>0.8329495192115324</v>
       </c>
       <c r="E7">
-        <v>7.355646436937161</v>
+        <v>12.80552586151254</v>
       </c>
       <c r="F7">
-        <v>0.06922828442511002</v>
+        <v>1.348170307499753</v>
       </c>
       <c r="G7">
-        <v>5.755860492232903E-05</v>
+        <v>0.002040920524303138</v>
       </c>
       <c r="H7">
-        <v>5.09709891677213E-06</v>
+        <v>0.0001908085491452541</v>
       </c>
       <c r="I7">
-        <v>0.01405179591631797</v>
+        <v>1.273275914506849</v>
       </c>
       <c r="J7">
-        <v>0.3317613386188806</v>
+        <v>7.119922547584145</v>
       </c>
       <c r="K7">
-        <v>0.002150464177895395</v>
+        <v>0.1261886640840468</v>
       </c>
       <c r="L7">
-        <v>0.001500120914784165</v>
+        <v>0.1229539377559253</v>
       </c>
       <c r="M7">
-        <v>0.006047829521076568</v>
+        <v>0.1164501329690784</v>
       </c>
       <c r="N7">
-        <v>6.892006716844612E-08</v>
+        <v>1.446783624616077E-06</v>
       </c>
       <c r="O7">
-        <v>0.0004143913459812324</v>
+        <v>0.01272392791897936</v>
       </c>
       <c r="P7">
-        <v>0.0003686160834084612</v>
+        <v>0.01684244704653497</v>
       </c>
       <c r="Q7">
-        <v>0.0003943382331395769</v>
+        <v>0.0172004776574168</v>
       </c>
       <c r="R7">
-        <v>0.001892874625000783</v>
+        <v>0.04159120136042249</v>
       </c>
       <c r="S7">
-        <v>8.929307888880458E-10</v>
+        <v>2.89667008247823E-08</v>
       </c>
       <c r="T7">
-        <v>5.423183316521192E-07</v>
+        <v>1.97329316552904E-05</v>
       </c>
       <c r="U7">
-        <v>0.0261508159599791</v>
+        <v>0.2827709755812872</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.005772319471172474</v>
+        <v>0.0005067527820028068</v>
       </c>
       <c r="B8">
-        <v>2.224921684943086</v>
+        <v>0.2090725237998758</v>
       </c>
       <c r="C8">
-        <v>0.06086610609472806</v>
+        <v>0.01296367408126561</v>
       </c>
       <c r="D8">
-        <v>0.08128839566052254</v>
+        <v>0.0169043562317701</v>
       </c>
       <c r="E8">
-        <v>7.5382438292594</v>
+        <v>0.5827246857862429</v>
       </c>
       <c r="F8">
-        <v>1.300874185365511</v>
+        <v>0.05504802033368273</v>
       </c>
       <c r="G8">
-        <v>0.000695072127842595</v>
+        <v>0.0001737504596035625</v>
       </c>
       <c r="H8">
-        <v>0.0001565284556828701</v>
+        <v>1.504736355641177E-05</v>
       </c>
       <c r="I8">
-        <v>0.06745111221934687</v>
+        <v>0.01732093271933916</v>
       </c>
       <c r="J8">
-        <v>1.659919557136706</v>
+        <v>0.3091297711333508</v>
       </c>
       <c r="K8">
-        <v>0.08998677133209405</v>
+        <v>0.06332676037042964</v>
       </c>
       <c r="L8">
-        <v>0.63121449115831</v>
+        <v>0.04609386349109477</v>
       </c>
       <c r="M8">
-        <v>0.00321225977431946</v>
+        <v>0.001418518685961062</v>
       </c>
       <c r="N8">
-        <v>6.293643580968192E-07</v>
+        <v>2.385586346746789E-07</v>
       </c>
       <c r="O8">
-        <v>0.003389902824780534</v>
+        <v>0.0001724650958293249</v>
       </c>
       <c r="P8">
-        <v>0.005516683500494814</v>
+        <v>0.0004212608057752736</v>
       </c>
       <c r="Q8">
-        <v>0.006030270438191787</v>
+        <v>0.0004307690443740191</v>
       </c>
       <c r="R8">
-        <v>0.04233379405403003</v>
+        <v>0.003780097198909456</v>
       </c>
       <c r="S8">
-        <v>1.443339329119398E-08</v>
+        <v>1.291043798391137E-09</v>
       </c>
       <c r="T8">
-        <v>4.897914756424789E-06</v>
+        <v>4.398195048616904E-07</v>
       </c>
       <c r="U8">
-        <v>0.4957872297639011</v>
+        <v>0.01027810390066138</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.008446597036713934</v>
+        <v>0.006306594984798475</v>
       </c>
       <c r="B9">
-        <v>0.8152282895183173</v>
+        <v>2.380157111094796</v>
       </c>
       <c r="C9">
-        <v>0.5096466953782191</v>
+        <v>0.05477911096169338</v>
       </c>
       <c r="D9">
-        <v>0.6197107021772097</v>
+        <v>0.07305764666294458</v>
       </c>
       <c r="E9">
-        <v>34.24860625807681</v>
+        <v>5.040002601224204</v>
       </c>
       <c r="F9">
-        <v>0.1986025156343691</v>
+        <v>1.712789172732714</v>
       </c>
       <c r="G9">
-        <v>0.0004588962838283131</v>
+        <v>0.0003918421302165963</v>
       </c>
       <c r="H9">
-        <v>0.001235671650312428</v>
+        <v>3.966915197279306E-05</v>
       </c>
       <c r="I9">
-        <v>0.1042438312934738</v>
+        <v>0.08680592886001595</v>
       </c>
       <c r="J9">
-        <v>4.278608480373189</v>
+        <v>1.158757407295048</v>
       </c>
       <c r="K9">
-        <v>0.01762964546813408</v>
+        <v>0.04720858455666246</v>
       </c>
       <c r="L9">
-        <v>2.822839941787993</v>
+        <v>0.01860278945943773</v>
       </c>
       <c r="M9">
-        <v>0.002063280772291046</v>
+        <v>0.01829508826258511</v>
       </c>
       <c r="N9">
-        <v>1.929764464579578E-06</v>
+        <v>2.736037829801841E-07</v>
       </c>
       <c r="O9">
-        <v>0.003115943123576517</v>
+        <v>0.002394198267205213</v>
       </c>
       <c r="P9">
-        <v>0.007495161839553297</v>
+        <v>0.004936109069353741</v>
       </c>
       <c r="Q9">
-        <v>0.007669981120671833</v>
+        <v>0.005285702031368052</v>
       </c>
       <c r="R9">
-        <v>0.008047584623229782</v>
+        <v>0.01750248341166682</v>
       </c>
       <c r="S9">
-        <v>3.121143891993343E-08</v>
+        <v>9.216778060612779E-09</v>
       </c>
       <c r="T9">
-        <v>4.062328177729354E-06</v>
+        <v>4.309032812511124E-06</v>
       </c>
       <c r="U9">
-        <v>0.05658614405113629</v>
+        <v>0.6779803074549582</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>3.708647782999255E-05</v>
+        <v>0.0120066865631726</v>
       </c>
       <c r="B10">
-        <v>0.00333841620261963</v>
+        <v>3.587523064244686</v>
       </c>
       <c r="C10">
-        <v>0.002499280198950413</v>
+        <v>0.7517799682570008</v>
       </c>
       <c r="D10">
-        <v>0.003047335103848585</v>
+        <v>0.9481719261083749</v>
       </c>
       <c r="E10">
-        <v>0.1585704074220271</v>
+        <v>38.26012389474143</v>
       </c>
       <c r="F10">
-        <v>0.0007670947349959657</v>
+        <v>0.9240500871304359</v>
       </c>
       <c r="G10">
-        <v>1.458626811733354E-06</v>
+        <v>0.003421065396265878</v>
       </c>
       <c r="H10">
-        <v>1.286843429176332E-07</v>
+        <v>0.001526492574808072</v>
       </c>
       <c r="I10">
-        <v>0.0005170128788387818</v>
+        <v>0.3391497270297551</v>
       </c>
       <c r="J10">
-        <v>0.01972150942869753</v>
+        <v>10.44930838349648</v>
       </c>
       <c r="K10">
-        <v>1.608534224939427E-05</v>
+        <v>0.9969392052064072</v>
       </c>
       <c r="L10">
-        <v>0.01315162208643908</v>
+        <v>0.7087070962353104</v>
       </c>
       <c r="M10">
-        <v>2.294981797525352E-06</v>
+        <v>0.04612455822261058</v>
       </c>
       <c r="N10">
-        <v>1.286921467521265E-08</v>
+        <v>4.133021549884204E-06</v>
       </c>
       <c r="O10">
-        <v>1.293174918539583E-05</v>
+        <v>0.004170294050546976</v>
       </c>
       <c r="P10">
-        <v>3.492260947568567E-05</v>
+        <v>0.007611853569417204</v>
       </c>
       <c r="Q10">
-        <v>3.572137873242877E-05</v>
+        <v>0.007803647234072292</v>
       </c>
       <c r="R10">
-        <v>3.101371901718753E-05</v>
+        <v>0.06400324280764566</v>
       </c>
       <c r="S10">
-        <v>1.432710015341549E-10</v>
+        <v>2.323404049847935E-08</v>
       </c>
       <c r="T10">
-        <v>1.754646738395292E-08</v>
+        <v>9.617357593408231E-06</v>
       </c>
       <c r="U10">
-        <v>0.000237885813940567</v>
+        <v>0.1875385851500547</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.000373667150241659</v>
+        <v>0.0001096662942389626</v>
       </c>
       <c r="B11">
-        <v>0.03547839225584763</v>
+        <v>0.0320930184212263</v>
       </c>
       <c r="C11">
-        <v>0.01735695170468094</v>
+        <v>0.001207942528848617</v>
       </c>
       <c r="D11">
-        <v>0.02142889032101769</v>
+        <v>0.001609859583124353</v>
       </c>
       <c r="E11">
-        <v>1.087725531160511</v>
+        <v>0.1450459936460293</v>
       </c>
       <c r="F11">
-        <v>0.008745845583002242</v>
+        <v>0.009274711298414274</v>
       </c>
       <c r="G11">
-        <v>1.429858864263493E-05</v>
+        <v>8.345260209632072E-06</v>
       </c>
       <c r="H11">
-        <v>1.527606523019114E-06</v>
+        <v>9.295383807585595E-07</v>
       </c>
       <c r="I11">
-        <v>0.005329534029627767</v>
+        <v>0.001319140207789331</v>
       </c>
       <c r="J11">
-        <v>0.172810981827134</v>
+        <v>0.0358538152008628</v>
       </c>
       <c r="K11">
-        <v>8.878979575726701E-05</v>
+        <v>0.002159293275482716</v>
       </c>
       <c r="L11">
-        <v>0.1748643634636862</v>
+        <v>0.02217131397154273</v>
       </c>
       <c r="M11">
-        <v>0.0004609130613112553</v>
+        <v>0.0001706932127569745</v>
       </c>
       <c r="N11">
-        <v>1.678931503803254E-07</v>
+        <v>3.055951486517949E-08</v>
       </c>
       <c r="O11">
-        <v>0.0001317687505928306</v>
+        <v>4.755000760116223E-05</v>
       </c>
       <c r="P11">
-        <v>0.000436298277600567</v>
+        <v>0.0001204879822339089</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788904300724</v>
+        <v>0.0001248144184826394</v>
       </c>
       <c r="R11">
-        <v>0.0003881229810213823</v>
+        <v>0.0001862645861436283</v>
       </c>
       <c r="S11">
-        <v>1.822863548046295E-09</v>
+        <v>3.340770178021455E-10</v>
       </c>
       <c r="T11">
-        <v>1.74228818451286E-07</v>
+        <v>7.277987548813604E-08</v>
       </c>
       <c r="U11">
-        <v>0.002905564603190643</v>
+        <v>0.002909588882457729</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.224248014810963E-05</v>
+        <v>0.001225404850908119</v>
       </c>
       <c r="B12">
-        <v>0.04340679348296385</v>
+        <v>0.3596575782968566</v>
       </c>
       <c r="C12">
-        <v>0.001952532100329711</v>
+        <v>0.05932092986800056</v>
       </c>
       <c r="D12">
-        <v>0.002502910827391426</v>
+        <v>0.07687203063767588</v>
       </c>
       <c r="E12">
-        <v>0.1964120917869607</v>
+        <v>2.640013353439471</v>
       </c>
       <c r="F12">
-        <v>0.01323766307845315</v>
+        <v>0.09875722842824093</v>
       </c>
       <c r="G12">
-        <v>7.602151379939076E-06</v>
+        <v>0.0009673518095697962</v>
       </c>
       <c r="H12">
-        <v>6.69642950174336E-07</v>
+        <v>8.656564872347279E-05</v>
       </c>
       <c r="I12">
-        <v>0.0007412120777762382</v>
+        <v>0.0722852291512389</v>
       </c>
       <c r="J12">
-        <v>0.02944734118803299</v>
+        <v>1.092900191270126</v>
       </c>
       <c r="K12">
-        <v>0.003003638278365359</v>
+        <v>0.1123189109628889</v>
       </c>
       <c r="L12">
-        <v>0.01437969030522635</v>
+        <v>0.02702354322270872</v>
       </c>
       <c r="M12">
-        <v>4.673568113195529E-05</v>
+        <v>0.01416299793229535</v>
       </c>
       <c r="N12">
-        <v>2.32832572974002E-08</v>
+        <v>2.224221768776557E-07</v>
       </c>
       <c r="O12">
-        <v>4.418555727212191E-05</v>
+        <v>0.0005965242258165239</v>
       </c>
       <c r="P12">
-        <v>9.640463538587292E-05</v>
+        <v>0.0007182496864035328</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812396266531</v>
+        <v>0.0007490651229771798</v>
       </c>
       <c r="R12">
-        <v>0.0001275625107726165</v>
+        <v>0.004636492197065671</v>
       </c>
       <c r="S12">
-        <v>2.864810435481096E-10</v>
+        <v>2.331503384414078E-09</v>
       </c>
       <c r="T12">
-        <v>7.764474512086273E-08</v>
+        <v>1.209861951684112E-06</v>
       </c>
       <c r="U12">
-        <v>0.004517339865540156</v>
+        <v>0.02856603577026722</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0002400585022664406</v>
+        <v>0.001869213830722756</v>
       </c>
       <c r="B13">
-        <v>0.1932148930019713</v>
+        <v>0.6965425955869656</v>
       </c>
       <c r="C13">
-        <v>0.005356596822122374</v>
+        <v>0.171668803790043</v>
       </c>
       <c r="D13">
-        <v>0.009062752276223426</v>
+        <v>0.223293520491419</v>
       </c>
       <c r="E13">
-        <v>3.722526483446583</v>
+        <v>3.135536853831662</v>
       </c>
       <c r="F13">
-        <v>0.06151576165206208</v>
+        <v>0.1795537252270356</v>
       </c>
       <c r="G13">
-        <v>1.936117956864681E-05</v>
+        <v>0.0003900019548300741</v>
       </c>
       <c r="H13">
-        <v>5.244946161248245E-06</v>
+        <v>0.0001705794727295348</v>
       </c>
       <c r="I13">
-        <v>0.00256984723229975</v>
+        <v>0.07681691111335791</v>
       </c>
       <c r="J13">
-        <v>0.1633231693606969</v>
+        <v>3.217340529698978</v>
       </c>
       <c r="K13">
-        <v>0.0008394809447199882</v>
+        <v>0.2073903113564425</v>
       </c>
       <c r="L13">
-        <v>0.007997821247893444</v>
+        <v>0.02327112188664267</v>
       </c>
       <c r="M13">
-        <v>0.0008360682804987063</v>
+        <v>0.01145433264400001</v>
       </c>
       <c r="N13">
-        <v>8.612594950548477E-08</v>
+        <v>3.532376649266704E-07</v>
       </c>
       <c r="O13">
-        <v>0.0001479688959867082</v>
+        <v>0.0007945734387558497</v>
       </c>
       <c r="P13">
-        <v>0.0003069426464085352</v>
+        <v>0.001220736631385933</v>
       </c>
       <c r="Q13">
-        <v>0.0003484561813247674</v>
+        <v>0.001280358812181828</v>
       </c>
       <c r="R13">
-        <v>0.0002864910377844535</v>
+        <v>0.006508606818831638</v>
       </c>
       <c r="S13">
-        <v>7.680304841588427E-10</v>
+        <v>3.158134645984636E-09</v>
       </c>
       <c r="T13">
-        <v>3.190607220076678E-07</v>
+        <v>2.15202152408184E-06</v>
       </c>
       <c r="U13">
-        <v>0.02591120975526327</v>
+        <v>0.0504135945176515</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>-0.0003027669144004831</v>
+        <v>0.001472941889953382</v>
       </c>
       <c r="B14">
-        <v>-2.221943826398587</v>
+        <v>0.4466068026717074</v>
       </c>
       <c r="C14">
-        <v>-0.1850631260839666</v>
+        <v>0.06155749467506261</v>
       </c>
       <c r="D14">
-        <v>-0.2545303525504079</v>
+        <v>0.08070113174250471</v>
       </c>
       <c r="E14">
-        <v>-4.952473583165762</v>
+        <v>4.132010346367617</v>
       </c>
       <c r="F14">
-        <v>-0.01877483826231866</v>
+        <v>0.1258350351016189</v>
       </c>
       <c r="G14">
-        <v>-5.135087827428531E-05</v>
+        <v>0.0009776636124309397</v>
       </c>
       <c r="H14">
-        <v>-1.187452128889729E-05</v>
+        <v>8.922302573217484E-05</v>
       </c>
       <c r="I14">
-        <v>-0.04147360731827519</v>
+        <v>0.07847873193125818</v>
       </c>
       <c r="J14">
-        <v>-2.98367668964816</v>
+        <v>1.160180129710791</v>
       </c>
       <c r="K14">
-        <v>0.001162910121512658</v>
+        <v>0.11573394760446</v>
       </c>
       <c r="L14">
-        <v>-0.004256687227723792</v>
+        <v>0.03126211457099125</v>
       </c>
       <c r="M14">
-        <v>0.0001473898060906207</v>
+        <v>0.01528680266498368</v>
       </c>
       <c r="N14">
-        <v>-4.53778037760282E-07</v>
+        <v>2.443636058444132E-07</v>
       </c>
       <c r="O14">
-        <v>-0.000134415243816065</v>
+        <v>0.0007059247970802208</v>
       </c>
       <c r="P14">
-        <v>-0.0004941235020476082</v>
+        <v>0.001177074643804141</v>
       </c>
       <c r="Q14">
-        <v>-0.0005021256731522293</v>
+        <v>0.001227075496910363</v>
       </c>
       <c r="R14">
-        <v>-0.002269543446296482</v>
+        <v>0.004837597858778649</v>
       </c>
       <c r="S14">
-        <v>-6.634298419752511E-09</v>
+        <v>2.752645472597331E-09</v>
       </c>
       <c r="T14">
-        <v>-2.970549616136849E-06</v>
+        <v>1.396138049938336E-06</v>
       </c>
       <c r="U14">
-        <v>-0.006767701989387242</v>
+        <v>0.03991210015266004</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0002400585022664406</v>
+        <v>-0.006490748649785581</v>
       </c>
       <c r="B15">
-        <v>0.1932148930019713</v>
+        <v>-0.5144198908179863</v>
       </c>
       <c r="C15">
-        <v>0.005356596822122374</v>
+        <v>-0.5126269713851869</v>
       </c>
       <c r="D15">
-        <v>0.009062752276223426</v>
+        <v>-0.6554899401953451</v>
       </c>
       <c r="E15">
-        <v>3.722526483446583</v>
+        <v>-44.9578883171687</v>
       </c>
       <c r="F15">
-        <v>0.06151576165206208</v>
+        <v>-0.1431501696433341</v>
       </c>
       <c r="G15">
-        <v>1.936117956864681E-05</v>
+        <v>-0.0007222434623434189</v>
       </c>
       <c r="H15">
-        <v>5.244946161248245E-06</v>
+        <v>-2.227253931432007E-05</v>
       </c>
       <c r="I15">
-        <v>0.00256984723229975</v>
+        <v>-0.07328943015302375</v>
       </c>
       <c r="J15">
-        <v>0.1633231693606969</v>
+        <v>-7.492091900405203</v>
       </c>
       <c r="K15">
-        <v>0.0008394809447199882</v>
+        <v>-0.0510569457453667</v>
       </c>
       <c r="L15">
-        <v>0.007997821247893444</v>
+        <v>-0.03497458277982181</v>
       </c>
       <c r="M15">
-        <v>0.0008360682804987063</v>
+        <v>-0.02634864199627184</v>
       </c>
       <c r="N15">
-        <v>8.612594950548477E-08</v>
+        <v>-2.485598668022693E-07</v>
       </c>
       <c r="O15">
-        <v>0.0001479688959867082</v>
+        <v>-0.00225676292446123</v>
       </c>
       <c r="P15">
-        <v>0.0003069426464085352</v>
+        <v>-0.001651215656444651</v>
       </c>
       <c r="Q15">
-        <v>0.0003484561813247674</v>
+        <v>-0.001720588473188304</v>
       </c>
       <c r="R15">
-        <v>0.0002864910377844535</v>
+        <v>-0.004639160339103111</v>
       </c>
       <c r="S15">
-        <v>7.680304841588427E-10</v>
+        <v>-4.76979395527505E-09</v>
       </c>
       <c r="T15">
-        <v>3.190607220076678E-07</v>
+        <v>-3.858391513202549E-06</v>
       </c>
       <c r="U15">
-        <v>0.02591120975526327</v>
+        <v>-0.04691174401977456</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.001127772392629044</v>
+        <v>-0.0147794573899811</v>
       </c>
       <c r="B16">
-        <v>-2.905930848724317</v>
+        <v>-4.899457806146281</v>
       </c>
       <c r="C16">
-        <v>-0.1305959594701798</v>
+        <v>-0.1584830918506808</v>
       </c>
       <c r="D16">
-        <v>-0.1881641396180643</v>
+        <v>-0.2086313453385227</v>
       </c>
       <c r="E16">
-        <v>-7.489396100065384</v>
+        <v>-11.62089096097392</v>
       </c>
       <c r="F16">
-        <v>-0.07598856603554884</v>
+        <v>-1.33257364667526</v>
       </c>
       <c r="G16">
-        <v>-0.0002960332964995705</v>
+        <v>-0.001880765833698872</v>
       </c>
       <c r="H16">
-        <v>-2.385709761930012E-05</v>
+        <v>-0.0006523007272320236</v>
       </c>
       <c r="I16">
-        <v>-0.07641797989497266</v>
+        <v>-0.2268308831735096</v>
       </c>
       <c r="J16">
-        <v>-1.821205932822409</v>
+        <v>-5.272234569922727</v>
       </c>
       <c r="K16">
-        <v>0.008253626191870547</v>
+        <v>-0.3160806235170137</v>
       </c>
       <c r="L16">
-        <v>-0.02760139256212078</v>
+        <v>-1.228870020133599</v>
       </c>
       <c r="M16">
-        <v>-0.0008452762675067803</v>
+        <v>-0.158958165134282</v>
       </c>
       <c r="N16">
-        <v>-2.958562241801927E-07</v>
+        <v>-2.482102609911584E-06</v>
       </c>
       <c r="O16">
-        <v>-0.0006194575011828011</v>
+        <v>-0.008112575555141169</v>
       </c>
       <c r="P16">
-        <v>-0.0008561062032999791</v>
+        <v>-0.01102698543198794</v>
       </c>
       <c r="Q16">
-        <v>-0.0008896668849045597</v>
+        <v>-0.01143249771607388</v>
       </c>
       <c r="R16">
-        <v>-0.005094434696971548</v>
+        <v>-0.05176817044710522</v>
       </c>
       <c r="S16">
-        <v>-9.129821072941981E-09</v>
+        <v>-3.075355000222541E-08</v>
       </c>
       <c r="T16">
-        <v>-3.767397127577186E-06</v>
+        <v>-1.172974962275795E-05</v>
       </c>
       <c r="U16">
-        <v>-0.02535583582017977</v>
+        <v>-0.3912979449063855</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>3.22376693367179E-05</v>
+        <v>-0.0002716546422413472</v>
       </c>
       <c r="B17">
-        <v>0.004177932428706111</v>
+        <v>-2.372984746204462</v>
       </c>
       <c r="C17">
-        <v>0.001113009604043947</v>
+        <v>-0.1201199389437007</v>
       </c>
       <c r="D17">
-        <v>0.001497187246866317</v>
+        <v>-0.1599610761027137</v>
       </c>
       <c r="E17">
-        <v>0.2282113295140377</v>
+        <v>-1.265781192830622</v>
       </c>
       <c r="F17">
-        <v>0.001119529097570097</v>
+        <v>-0.007903464483130106</v>
       </c>
       <c r="G17">
-        <v>2.727407241808243E-06</v>
+        <v>-5.236324554503363E-06</v>
       </c>
       <c r="H17">
-        <v>3.972295539434458E-07</v>
+        <v>-2.145683914754631E-05</v>
       </c>
       <c r="I17">
-        <v>0.0004958955002772293</v>
+        <v>-0.02399119021887828</v>
       </c>
       <c r="J17">
-        <v>0.02541819492235541</v>
+        <v>-2.349946984604443</v>
       </c>
       <c r="K17">
-        <v>0.0001296991491403689</v>
+        <v>-0.001044696333229455</v>
       </c>
       <c r="L17">
-        <v>0.0002784029847262784</v>
+        <v>-0.0005566583626634928</v>
       </c>
       <c r="M17">
-        <v>-6.446808906155006E-07</v>
+        <v>-0.00126572319353026</v>
       </c>
       <c r="N17">
-        <v>1.518256838439613E-09</v>
+        <v>-1.01724414183921E-06</v>
       </c>
       <c r="O17">
-        <v>1.308117929204681E-05</v>
+        <v>-9.178312976836515E-05</v>
       </c>
       <c r="P17">
-        <v>1.25318659121615E-05</v>
+        <v>-0.0006027119760296834</v>
       </c>
       <c r="Q17">
-        <v>1.324518727300464E-05</v>
+        <v>-0.0006068256960908631</v>
       </c>
       <c r="R17">
-        <v>2.327840180794699E-05</v>
+        <v>-0.003723410346524299</v>
       </c>
       <c r="S17">
-        <v>2.807603175161794E-11</v>
+        <v>-6.903281052444407E-09</v>
       </c>
       <c r="T17">
-        <v>1.959897430035977E-08</v>
+        <v>-2.884956387351992E-06</v>
       </c>
       <c r="U17">
-        <v>0.0002862359675084524</v>
+        <v>-0.002983724677141254</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.000317260607559527</v>
+        <v>-0.0001933860014000424</v>
       </c>
       <c r="B18">
-        <v>0.01438050035483897</v>
+        <v>-3.020426940177512</v>
       </c>
       <c r="C18">
-        <v>0.009876110539888929</v>
+        <v>-0.1585863090948381</v>
       </c>
       <c r="D18">
-        <v>0.01374714295176581</v>
+        <v>-0.2296331744108458</v>
       </c>
       <c r="E18">
-        <v>3.036110619178591</v>
+        <v>-8.833295457065185</v>
       </c>
       <c r="F18">
-        <v>0.003432919306647236</v>
+        <v>-0.005003262128195839</v>
       </c>
       <c r="G18">
-        <v>1.637746601030049E-05</v>
+        <v>-2.655623062349735E-06</v>
       </c>
       <c r="H18">
-        <v>2.978082115670952E-07</v>
+        <v>-4.732000228011894E-06</v>
       </c>
       <c r="I18">
-        <v>0.004551242753002888</v>
+        <v>-0.00983137716929712</v>
       </c>
       <c r="J18">
-        <v>0.1109958646530203</v>
+        <v>-1.917643191338486</v>
       </c>
       <c r="K18">
-        <v>5.684868889867786E-05</v>
+        <v>-0.0004283465279362533</v>
       </c>
       <c r="L18">
-        <v>0.0005643998999115244</v>
+        <v>-0.0003125677385611164</v>
       </c>
       <c r="M18">
-        <v>0.002545944303193652</v>
+        <v>-0.0006251338095785657</v>
       </c>
       <c r="N18">
-        <v>4.247286103232592E-09</v>
+        <v>-2.204923862646055E-07</v>
       </c>
       <c r="O18">
-        <v>0.0001205650677357275</v>
+        <v>-6.373949608667699E-05</v>
       </c>
       <c r="P18">
-        <v>5.354748256516673E-05</v>
+        <v>-0.0004646641418501771</v>
       </c>
       <c r="Q18">
-        <v>5.566771310731721E-05</v>
+        <v>-0.0004671485312884484</v>
       </c>
       <c r="R18">
-        <v>-3.593767031765374E-05</v>
+        <v>-0.001527600900516592</v>
       </c>
       <c r="S18">
-        <v>1.736566526220374E-10</v>
+        <v>-8.798283390177541E-09</v>
       </c>
       <c r="T18">
-        <v>1.294725184235825E-07</v>
+        <v>-3.317026254492277E-06</v>
       </c>
       <c r="U18">
-        <v>0.001277530633186681</v>
+        <v>-0.001836593978446905</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.003211432698957535</v>
+        <v>-0.0001646121337716588</v>
       </c>
       <c r="B19">
-        <v>1.19235103276486</v>
+        <v>-2.551055179473744</v>
       </c>
       <c r="C19">
-        <v>0.0408748575511218</v>
+        <v>-0.1339373210868955</v>
       </c>
       <c r="D19">
-        <v>0.05159467977056928</v>
+        <v>-0.1939394979044583</v>
       </c>
       <c r="E19">
-        <v>7.351979367000859</v>
+        <v>-7.46096673613058</v>
       </c>
       <c r="F19">
-        <v>0.2589782349859715</v>
+        <v>-0.004357871352830372</v>
       </c>
       <c r="G19">
-        <v>0.0005037090295173091</v>
+        <v>-2.414200920745041E-06</v>
       </c>
       <c r="H19">
-        <v>-0.002462599942054861</v>
+        <v>-4.015526137742059E-06</v>
       </c>
       <c r="I19">
-        <v>0.02425252069417436</v>
+        <v>-0.008600984275296897</v>
       </c>
       <c r="J19">
-        <v>2.397393597226613</v>
+        <v>-1.619602095713249</v>
       </c>
       <c r="K19">
-        <v>0.05817103502387221</v>
+        <v>-0.0003773715178178028</v>
       </c>
       <c r="L19">
-        <v>2.002549069201274</v>
+        <v>-0.0002772537098111922</v>
       </c>
       <c r="M19">
-        <v>0.001342252270970642</v>
+        <v>-0.0005834807744874545</v>
       </c>
       <c r="N19">
-        <v>3.000385236377545E-07</v>
+        <v>-1.862772742123009E-07</v>
       </c>
       <c r="O19">
-        <v>0.00281434581597237</v>
+        <v>-5.55431925631026E-05</v>
       </c>
       <c r="P19">
-        <v>0.004199702712372762</v>
+        <v>-0.000393872099767705</v>
       </c>
       <c r="Q19">
-        <v>0.004308237575540087</v>
+        <v>-0.0003961234669224365</v>
       </c>
       <c r="R19">
-        <v>0.06643524714958414</v>
+        <v>-0.001449330890297234</v>
       </c>
       <c r="S19">
-        <v>2.278454868925333E-08</v>
+        <v>-7.43174377226392E-09</v>
       </c>
       <c r="T19">
-        <v>3.655687052178562E-06</v>
+        <v>-2.803970325701514E-06</v>
       </c>
       <c r="U19">
-        <v>0.08608849621678548</v>
+        <v>-0.001600392004408769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>-0.001398397579623764</v>
+      </c>
+      <c r="B20">
+        <v>-0.7567638647941042</v>
+      </c>
+      <c r="C20">
+        <v>-0.01833915542971589</v>
+      </c>
+      <c r="D20">
+        <v>-0.02434508710769806</v>
+      </c>
+      <c r="E20">
+        <v>-0.1475128010166002</v>
+      </c>
+      <c r="F20">
+        <v>-0.02691727963864349</v>
+      </c>
+      <c r="G20">
+        <v>-9.761806922327314E-06</v>
+      </c>
+      <c r="H20">
+        <v>-0.0002333030147434004</v>
+      </c>
+      <c r="I20">
+        <v>-0.006488520433672793</v>
+      </c>
+      <c r="J20">
+        <v>-0.4347469531068889</v>
+      </c>
+      <c r="K20">
+        <v>-0.001827152501561654</v>
+      </c>
+      <c r="L20">
+        <v>-0.0007984195824564946</v>
+      </c>
+      <c r="M20">
+        <v>-0.002098156443301221</v>
+      </c>
+      <c r="N20">
+        <v>-1.167375885963192E-05</v>
+      </c>
+      <c r="O20">
+        <v>-0.0004388304003148068</v>
+      </c>
+      <c r="P20">
+        <v>-0.003158334710354766</v>
+      </c>
+      <c r="Q20">
+        <v>-0.003169012313578013</v>
+      </c>
+      <c r="R20">
+        <v>-0.002121980058079036</v>
+      </c>
+      <c r="S20">
+        <v>-2.854796014752976E-09</v>
+      </c>
+      <c r="T20">
+        <v>-1.113230964500569E-06</v>
+      </c>
+      <c r="U20">
+        <v>-0.009696643890783896</v>
       </c>
     </row>
   </sheetData>

--- a/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_uniquie_diathermy_CONSQ_recipe.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1237 +507,1172 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0007188410693638203</v>
+        <v>0.006729444697156826</v>
       </c>
       <c r="B2">
-        <v>0.247667921983642</v>
+        <v>0.5968889673026943</v>
       </c>
       <c r="C2">
-        <v>0.007819008541924573</v>
+        <v>0.2906972634326919</v>
       </c>
       <c r="D2">
-        <v>0.0103208308765014</v>
+        <v>0.3462557148231494</v>
       </c>
       <c r="E2">
-        <v>0.6751939198277971</v>
+        <v>24.60475465434519</v>
       </c>
       <c r="F2">
-        <v>0.14975979866656</v>
+        <v>0.1517400455617437</v>
       </c>
       <c r="G2">
-        <v>5.541603635558394E-05</v>
+        <v>-0.0001369527125210425</v>
       </c>
       <c r="H2">
-        <v>7.917951217020767E-06</v>
+        <v>0.001303791152472131</v>
       </c>
       <c r="I2">
-        <v>0.009957978155933637</v>
+        <v>0.04135145266663041</v>
       </c>
       <c r="J2">
-        <v>0.1553442029466165</v>
+        <v>1.688176561442053</v>
       </c>
       <c r="K2">
-        <v>0.01109665182160749</v>
+        <v>0.01250490033962795</v>
       </c>
       <c r="L2">
-        <v>0.004202585808126328</v>
+        <v>2.105688837734468</v>
       </c>
       <c r="M2">
-        <v>0.002064264921852336</v>
+        <v>0.003254154333503773</v>
       </c>
       <c r="N2">
-        <v>4.733841614345213E-08</v>
+        <v>-1.427482347931088E-06</v>
       </c>
       <c r="O2">
-        <v>0.0003099037459208717</v>
+        <v>0.002721457311951829</v>
       </c>
       <c r="P2">
-        <v>0.0005818799005640871</v>
+        <v>0.005039395930450843</v>
       </c>
       <c r="Q2">
-        <v>0.0006164943873950947</v>
+        <v>0.005147148322015679</v>
       </c>
       <c r="R2">
-        <v>0.001999873817040139</v>
+        <v>0.006577350192402752</v>
       </c>
       <c r="S2">
-        <v>1.01426229124802E-09</v>
+        <v>2.286235124261717E-08</v>
       </c>
       <c r="T2">
-        <v>4.981149007827225E-07</v>
+        <v>2.804576216764584E-06</v>
       </c>
       <c r="U2">
-        <v>0.05704845728670478</v>
+        <v>0.02906422778526136</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002056820162108498</v>
+        <v>0.0005153637872317309</v>
       </c>
       <c r="B3">
-        <v>0.708735854342761</v>
+        <v>0.04407365126233039</v>
       </c>
       <c r="C3">
-        <v>0.0223690146190988</v>
+        <v>0.02574914042356426</v>
       </c>
       <c r="D3">
-        <v>0.02952715145445606</v>
+        <v>0.03139967699617304</v>
       </c>
       <c r="E3">
-        <v>1.930445723122375</v>
+        <v>2.316325695671528</v>
       </c>
       <c r="F3">
-        <v>0.4284511303468264</v>
+        <v>0.01101782764793141</v>
       </c>
       <c r="G3">
-        <v>0.0001588899820274297</v>
+        <v>1.3437354839343E-05</v>
       </c>
       <c r="H3">
-        <v>2.293561049089504E-05</v>
+        <v>7.486373081821526E-05</v>
       </c>
       <c r="I3">
-        <v>0.02851045517361431</v>
+        <v>0.004946216273907578</v>
       </c>
       <c r="J3">
-        <v>0.4448102353727749</v>
+        <v>0.2308595388619706</v>
       </c>
       <c r="K3">
-        <v>0.03191441579159117</v>
+        <v>0.0009889285294365376</v>
       </c>
       <c r="L3">
-        <v>0.01225291810387747</v>
+        <v>0.1471783164464471</v>
       </c>
       <c r="M3">
-        <v>0.005902614870935912</v>
+        <v>-7.215935507971719E-05</v>
       </c>
       <c r="N3">
-        <v>1.3579057482808E-07</v>
+        <v>2.267861639407232E-08</v>
       </c>
       <c r="O3">
-        <v>0.0008865846676285235</v>
+        <v>0.0001921845398804787</v>
       </c>
       <c r="P3">
-        <v>0.001665484984633655</v>
+        <v>0.0003893137314174362</v>
       </c>
       <c r="Q3">
-        <v>0.001764860038526168</v>
+        <v>0.0003981760257649921</v>
       </c>
       <c r="R3">
-        <v>0.005755802188060175</v>
+        <v>0.0004498842042423925</v>
       </c>
       <c r="S3">
-        <v>2.904679699746952E-09</v>
+        <v>1.645776036956675E-09</v>
       </c>
       <c r="T3">
-        <v>1.425453175820563E-06</v>
+        <v>2.320837237285736E-07</v>
       </c>
       <c r="U3">
-        <v>0.1631995341405314</v>
+        <v>0.002680417068394435</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>7.659785493073219E-05</v>
+        <v>0.006992716169468604</v>
       </c>
       <c r="B4">
-        <v>0.02276016469242935</v>
+        <v>2.903410317259439</v>
       </c>
       <c r="C4">
-        <v>0.001909640057178968</v>
+        <v>0.0703887195060261</v>
       </c>
       <c r="D4">
-        <v>0.002490734862463381</v>
+        <v>0.09440797965049126</v>
       </c>
       <c r="E4">
-        <v>0.1130597939334322</v>
+        <v>8.341453671392946</v>
       </c>
       <c r="F4">
-        <v>0.006825276404407523</v>
+        <v>1.848787729038111</v>
       </c>
       <c r="G4">
-        <v>1.372829765786034E-05</v>
+        <v>0.000721316100088187</v>
       </c>
       <c r="H4">
-        <v>2.898688439309856E-06</v>
+        <v>0.000102375097953039</v>
       </c>
       <c r="I4">
-        <v>0.001778496544495597</v>
+        <v>0.0813158675768732</v>
       </c>
       <c r="J4">
-        <v>0.03749089564845728</v>
+        <v>1.694323737969347</v>
       </c>
       <c r="K4">
-        <v>0.006917810415986696</v>
+        <v>0.119792643322514</v>
       </c>
       <c r="L4">
-        <v>0.001248097831411931</v>
+        <v>0.1250209479787639</v>
       </c>
       <c r="M4">
-        <v>0.0002834215122960944</v>
+        <v>0.003473829030251146</v>
       </c>
       <c r="N4">
-        <v>1.055853061768374E-08</v>
+        <v>4.730718260739864E-07</v>
       </c>
       <c r="O4">
-        <v>3.11302903159179E-05</v>
+        <v>0.003900919281495695</v>
       </c>
       <c r="P4">
-        <v>4.555731126211559E-05</v>
+        <v>0.006715645300494162</v>
       </c>
       <c r="Q4">
-        <v>4.833448057305939E-05</v>
+        <v>0.007422234042040109</v>
       </c>
       <c r="R4">
-        <v>0.0007223659272774915</v>
+        <v>0.04519907279605725</v>
       </c>
       <c r="S4">
-        <v>1.093605034514646E-10</v>
+        <v>1.231829064228026E-08</v>
       </c>
       <c r="T4">
-        <v>5.684096627771281E-08</v>
+        <v>5.909946400619852E-06</v>
       </c>
       <c r="U4">
-        <v>0.001966191602962182</v>
+        <v>0.7120457890565218</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>4.494774150834181E-05</v>
+        <v>2.228342432526147E-05</v>
       </c>
       <c r="B5">
-        <v>0.01333332793161536</v>
+        <v>0.001446017211208925</v>
       </c>
       <c r="C5">
-        <v>0.00113118969260157</v>
+        <v>0.0007034450132892786</v>
       </c>
       <c r="D5">
-        <v>0.001475447275778847</v>
+        <v>0.001901529265237749</v>
       </c>
       <c r="E5">
-        <v>0.06671063857447705</v>
+        <v>0.1757922924423924</v>
       </c>
       <c r="F5">
-        <v>0.003950659365313896</v>
+        <v>0.0003603341649364624</v>
       </c>
       <c r="G5">
-        <v>8.123884429376959E-06</v>
+        <v>8.586114505383465E-07</v>
       </c>
       <c r="H5">
-        <v>1.718841981009837E-06</v>
+        <v>4.031062347864709E-08</v>
       </c>
       <c r="I5">
-        <v>0.001050012368860427</v>
+        <v>0.0002633467592604296</v>
       </c>
       <c r="J5">
-        <v>0.02215486883508942</v>
+        <v>0.01045292780765348</v>
       </c>
       <c r="K5">
-        <v>0.004116895788353339</v>
+        <v>-1.847186051479672E-05</v>
       </c>
       <c r="L5">
-        <v>0.000741979390963771</v>
+        <v>6.659734352215731E-05</v>
       </c>
       <c r="M5">
-        <v>0.0001631808149278796</v>
+        <v>0.0003001268140134791</v>
       </c>
       <c r="N5">
-        <v>6.232933448748168E-09</v>
+        <v>2.762481039375305E-09</v>
       </c>
       <c r="O5">
-        <v>1.820546210344337E-05</v>
+        <v>8.802857096501362E-06</v>
       </c>
       <c r="P5">
-        <v>2.662834051890125E-05</v>
+        <v>1.053320075520928E-05</v>
       </c>
       <c r="Q5">
-        <v>2.824083803821364E-05</v>
+        <v>1.080501554014964E-05</v>
       </c>
       <c r="R5">
-        <v>0.0004267269038516166</v>
+        <v>-2.767847798685744E-06</v>
       </c>
       <c r="S5">
-        <v>6.423814490121799E-11</v>
+        <v>1.402905186066337E-11</v>
       </c>
       <c r="T5">
-        <v>3.335804190164459E-08</v>
+        <v>1.013618798778908E-08</v>
       </c>
       <c r="U5">
-        <v>0.001129587444995076</v>
+        <v>0.00017313332933227</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.009244927175236688</v>
+        <v>0.017566541172881</v>
       </c>
       <c r="B6">
-        <v>2.671091325159501</v>
+        <v>0.9646565550202538</v>
       </c>
       <c r="C6">
-        <v>0.5528633355381283</v>
+        <v>0.6426218527467251</v>
       </c>
       <c r="D6">
-        <v>0.6978899315802861</v>
+        <v>0.8664968188127218</v>
       </c>
       <c r="E6">
-        <v>28.38506854999915</v>
+        <v>141.557446557899</v>
       </c>
       <c r="F6">
-        <v>0.6839581655613456</v>
+        <v>0.2746579800945439</v>
       </c>
       <c r="G6">
-        <v>0.002701484692631423</v>
+        <v>0.001292046244655325</v>
       </c>
       <c r="H6">
-        <v>0.001849573450990763</v>
+        <v>3.718998408651533E-05</v>
       </c>
       <c r="I6">
-        <v>0.2576172795401561</v>
+        <v>0.1688539249124067</v>
       </c>
       <c r="J6">
-        <v>8.056915142322909</v>
+        <v>15.7831231011708</v>
       </c>
       <c r="K6">
-        <v>0.7222524782501005</v>
+        <v>0.05799746421320202</v>
       </c>
       <c r="L6">
-        <v>0.5164372368509806</v>
+        <v>0.147118550229989</v>
       </c>
       <c r="M6">
-        <v>0.04237846312668849</v>
+        <v>-0.04774249846773665</v>
       </c>
       <c r="N6">
-        <v>3.23291226410031E-06</v>
+        <v>7.185283744412858E-07</v>
       </c>
       <c r="O6">
-        <v>0.003220264314406627</v>
+        <v>0.005885703590216259</v>
       </c>
       <c r="P6">
-        <v>0.005711522907496771</v>
+        <v>0.004935220385614837</v>
       </c>
       <c r="Q6">
-        <v>0.005856925306594622</v>
+        <v>0.005075476231526235</v>
       </c>
       <c r="R6">
-        <v>0.04998574732677653</v>
+        <v>0.01184196459971396</v>
       </c>
       <c r="S6">
-        <v>1.736799394500123E-08</v>
+        <v>1.140410657305694E-08</v>
       </c>
       <c r="T6">
-        <v>7.318253871656451E-06</v>
+        <v>8.780654155787251E-06</v>
       </c>
       <c r="U6">
-        <v>0.1417827289126332</v>
+        <v>0.05547848335611903</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.0290224454532214</v>
+        <v>0.001022410061026684</v>
       </c>
       <c r="B7">
-        <v>6.228141697880425</v>
+        <v>0.1671249421909153</v>
       </c>
       <c r="C7">
-        <v>0.6640835469229012</v>
+        <v>0.0254256114577045</v>
       </c>
       <c r="D7">
-        <v>0.8329495192115324</v>
+        <v>0.03525272059820508</v>
       </c>
       <c r="E7">
-        <v>12.80552586151254</v>
+        <v>7.355646436937161</v>
       </c>
       <c r="F7">
-        <v>1.348170307499753</v>
+        <v>0.06922828442511002</v>
       </c>
       <c r="G7">
-        <v>0.002040920524303138</v>
+        <v>5.755860492232903E-05</v>
       </c>
       <c r="H7">
-        <v>0.0001908085491452541</v>
+        <v>5.09709891677213E-06</v>
       </c>
       <c r="I7">
-        <v>1.273275914506849</v>
+        <v>0.01405179591631797</v>
       </c>
       <c r="J7">
-        <v>7.119922547584145</v>
+        <v>0.3317613386188806</v>
       </c>
       <c r="K7">
-        <v>0.1261886640840468</v>
+        <v>0.002150464177895395</v>
       </c>
       <c r="L7">
-        <v>0.1229539377559253</v>
+        <v>0.001500120914784165</v>
       </c>
       <c r="M7">
-        <v>0.1164501329690784</v>
+        <v>0.006047829521076568</v>
       </c>
       <c r="N7">
-        <v>1.446783624616077E-06</v>
+        <v>6.892006716844612E-08</v>
       </c>
       <c r="O7">
-        <v>0.01272392791897936</v>
+        <v>0.0004143913459812324</v>
       </c>
       <c r="P7">
-        <v>0.01684244704653497</v>
+        <v>0.0003686160834084612</v>
       </c>
       <c r="Q7">
-        <v>0.0172004776574168</v>
+        <v>0.0003943382331395769</v>
       </c>
       <c r="R7">
-        <v>0.04159120136042249</v>
+        <v>0.001892874625000783</v>
       </c>
       <c r="S7">
-        <v>2.89667008247823E-08</v>
+        <v>8.929307888880458E-10</v>
       </c>
       <c r="T7">
-        <v>1.97329316552904E-05</v>
+        <v>5.423183316521192E-07</v>
       </c>
       <c r="U7">
-        <v>0.2827709755812872</v>
+        <v>0.0261508159599791</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.0005067527820028068</v>
+        <v>0.005772319471172474</v>
       </c>
       <c r="B8">
-        <v>0.2090725237998758</v>
+        <v>2.224921684943086</v>
       </c>
       <c r="C8">
-        <v>0.01296367408126561</v>
+        <v>0.06086610609472806</v>
       </c>
       <c r="D8">
-        <v>0.0169043562317701</v>
+        <v>0.08128839566052254</v>
       </c>
       <c r="E8">
-        <v>0.5827246857862429</v>
+        <v>7.5382438292594</v>
       </c>
       <c r="F8">
-        <v>0.05504802033368273</v>
+        <v>1.300874185365511</v>
       </c>
       <c r="G8">
-        <v>0.0001737504596035625</v>
+        <v>0.000695072127842595</v>
       </c>
       <c r="H8">
-        <v>1.504736355641177E-05</v>
+        <v>0.0001565284556828701</v>
       </c>
       <c r="I8">
-        <v>0.01732093271933916</v>
+        <v>0.06745111221934687</v>
       </c>
       <c r="J8">
-        <v>0.3091297711333508</v>
+        <v>1.659919557136706</v>
       </c>
       <c r="K8">
-        <v>0.06332676037042964</v>
+        <v>0.08998677133209405</v>
       </c>
       <c r="L8">
-        <v>0.04609386349109477</v>
+        <v>0.63121449115831</v>
       </c>
       <c r="M8">
-        <v>0.001418518685961062</v>
+        <v>0.00321225977431946</v>
       </c>
       <c r="N8">
-        <v>2.385586346746789E-07</v>
+        <v>6.293643580968192E-07</v>
       </c>
       <c r="O8">
-        <v>0.0001724650958293249</v>
+        <v>0.003389902824780534</v>
       </c>
       <c r="P8">
-        <v>0.0004212608057752736</v>
+        <v>0.005516683500494814</v>
       </c>
       <c r="Q8">
-        <v>0.0004307690443740191</v>
+        <v>0.006030270438191787</v>
       </c>
       <c r="R8">
-        <v>0.003780097198909456</v>
+        <v>0.04233379405403003</v>
       </c>
       <c r="S8">
-        <v>1.291043798391137E-09</v>
+        <v>1.443339329119398E-08</v>
       </c>
       <c r="T8">
-        <v>4.398195048616904E-07</v>
+        <v>4.897914756424789E-06</v>
       </c>
       <c r="U8">
-        <v>0.01027810390066138</v>
+        <v>0.4957872297639011</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006306594984798475</v>
+        <v>0.008446597036713934</v>
       </c>
       <c r="B9">
-        <v>2.380157111094796</v>
+        <v>0.8152282895183173</v>
       </c>
       <c r="C9">
-        <v>0.05477911096169338</v>
+        <v>0.5096466953782191</v>
       </c>
       <c r="D9">
-        <v>0.07305764666294458</v>
+        <v>0.6197107021772097</v>
       </c>
       <c r="E9">
-        <v>5.040002601224204</v>
+        <v>34.24860625807681</v>
       </c>
       <c r="F9">
-        <v>1.712789172732714</v>
+        <v>0.1986025156343691</v>
       </c>
       <c r="G9">
-        <v>0.0003918421302165963</v>
+        <v>0.0004588962838283131</v>
       </c>
       <c r="H9">
-        <v>3.966915197279306E-05</v>
+        <v>0.001235671650312428</v>
       </c>
       <c r="I9">
-        <v>0.08680592886001595</v>
+        <v>0.1042438312934738</v>
       </c>
       <c r="J9">
-        <v>1.158757407295048</v>
+        <v>4.278608480373189</v>
       </c>
       <c r="K9">
-        <v>0.04720858455666246</v>
+        <v>0.01762964546813408</v>
       </c>
       <c r="L9">
-        <v>0.01860278945943773</v>
+        <v>2.822839941787993</v>
       </c>
       <c r="M9">
-        <v>0.01829508826258511</v>
+        <v>0.002063280772291046</v>
       </c>
       <c r="N9">
-        <v>2.736037829801841E-07</v>
+        <v>1.929764464579578E-06</v>
       </c>
       <c r="O9">
-        <v>0.002394198267205213</v>
+        <v>0.003115943123576517</v>
       </c>
       <c r="P9">
-        <v>0.004936109069353741</v>
+        <v>0.007495161839553297</v>
       </c>
       <c r="Q9">
-        <v>0.005285702031368052</v>
+        <v>0.007669981120671833</v>
       </c>
       <c r="R9">
-        <v>0.01750248341166682</v>
+        <v>0.008047584623229782</v>
       </c>
       <c r="S9">
-        <v>9.216778060612779E-09</v>
+        <v>3.121143891993343E-08</v>
       </c>
       <c r="T9">
-        <v>4.309032812511124E-06</v>
+        <v>4.062328177729354E-06</v>
       </c>
       <c r="U9">
-        <v>0.6779803074549582</v>
+        <v>0.05658614405113629</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0120066865631726</v>
+        <v>3.708647782999255E-05</v>
       </c>
       <c r="B10">
-        <v>3.587523064244686</v>
+        <v>0.00333841620261963</v>
       </c>
       <c r="C10">
-        <v>0.7517799682570008</v>
+        <v>0.002499280198950413</v>
       </c>
       <c r="D10">
-        <v>0.9481719261083749</v>
+        <v>0.003047335103848585</v>
       </c>
       <c r="E10">
-        <v>38.26012389474143</v>
+        <v>0.1585704074220271</v>
       </c>
       <c r="F10">
-        <v>0.9240500871304359</v>
+        <v>0.0007670947349959657</v>
       </c>
       <c r="G10">
-        <v>0.003421065396265878</v>
+        <v>1.458626811733354E-06</v>
       </c>
       <c r="H10">
-        <v>0.001526492574808072</v>
+        <v>1.286843429176332E-07</v>
       </c>
       <c r="I10">
-        <v>0.3391497270297551</v>
+        <v>0.0005170128788387818</v>
       </c>
       <c r="J10">
-        <v>10.44930838349648</v>
+        <v>0.01972150942869753</v>
       </c>
       <c r="K10">
-        <v>0.9969392052064072</v>
+        <v>1.608534224939427E-05</v>
       </c>
       <c r="L10">
-        <v>0.7087070962353104</v>
+        <v>0.01315162208643908</v>
       </c>
       <c r="M10">
-        <v>0.04612455822261058</v>
+        <v>2.294981797525352E-06</v>
       </c>
       <c r="N10">
-        <v>4.133021549884204E-06</v>
+        <v>1.286921467521265E-08</v>
       </c>
       <c r="O10">
-        <v>0.004170294050546976</v>
+        <v>1.293174918539583E-05</v>
       </c>
       <c r="P10">
-        <v>0.007611853569417204</v>
+        <v>3.492260947568567E-05</v>
       </c>
       <c r="Q10">
-        <v>0.007803647234072292</v>
+        <v>3.572137873242877E-05</v>
       </c>
       <c r="R10">
-        <v>0.06400324280764566</v>
+        <v>3.101371901718753E-05</v>
       </c>
       <c r="S10">
-        <v>2.323404049847935E-08</v>
+        <v>1.432710015341549E-10</v>
       </c>
       <c r="T10">
-        <v>9.617357593408231E-06</v>
+        <v>1.754646738395292E-08</v>
       </c>
       <c r="U10">
-        <v>0.1875385851500547</v>
+        <v>0.000237885813940567</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0001096662942389626</v>
+        <v>0.000373667150241659</v>
       </c>
       <c r="B11">
-        <v>0.0320930184212263</v>
+        <v>0.03547839225584763</v>
       </c>
       <c r="C11">
-        <v>0.001207942528848617</v>
+        <v>0.01735695170468094</v>
       </c>
       <c r="D11">
-        <v>0.001609859583124353</v>
+        <v>0.02142889032101769</v>
       </c>
       <c r="E11">
-        <v>0.1450459936460293</v>
+        <v>1.087725531160511</v>
       </c>
       <c r="F11">
-        <v>0.009274711298414274</v>
+        <v>0.008745845583002242</v>
       </c>
       <c r="G11">
-        <v>8.345260209632072E-06</v>
+        <v>1.429858864263493E-05</v>
       </c>
       <c r="H11">
-        <v>9.295383807585595E-07</v>
+        <v>1.527606523019114E-06</v>
       </c>
       <c r="I11">
-        <v>0.001319140207789331</v>
+        <v>0.005329534029627767</v>
       </c>
       <c r="J11">
-        <v>0.0358538152008628</v>
+        <v>0.172810981827134</v>
       </c>
       <c r="K11">
-        <v>0.002159293275482716</v>
+        <v>8.878979575726701E-05</v>
       </c>
       <c r="L11">
-        <v>0.02217131397154273</v>
+        <v>0.1748643634636862</v>
       </c>
       <c r="M11">
-        <v>0.0001706932127569745</v>
+        <v>0.0004609130613112553</v>
       </c>
       <c r="N11">
-        <v>3.055951486517949E-08</v>
+        <v>1.678931503803254E-07</v>
       </c>
       <c r="O11">
-        <v>4.755000760116223E-05</v>
+        <v>0.0001317687505928306</v>
       </c>
       <c r="P11">
-        <v>0.0001204879822339089</v>
+        <v>0.000436298277600567</v>
       </c>
       <c r="Q11">
-        <v>0.0001248144184826394</v>
+        <v>0.0004458788904300724</v>
       </c>
       <c r="R11">
-        <v>0.0001862645861436283</v>
+        <v>0.0003881229810213823</v>
       </c>
       <c r="S11">
-        <v>3.340770178021455E-10</v>
+        <v>1.822863548046295E-09</v>
       </c>
       <c r="T11">
-        <v>7.277987548813604E-08</v>
+        <v>1.74228818451286E-07</v>
       </c>
       <c r="U11">
-        <v>0.002909588882457729</v>
+        <v>0.002905564603190643</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.001225404850908119</v>
+        <v>7.224248014810963E-05</v>
       </c>
       <c r="B12">
-        <v>0.3596575782968566</v>
+        <v>0.04340679348296385</v>
       </c>
       <c r="C12">
-        <v>0.05932092986800056</v>
+        <v>0.001952532100329711</v>
       </c>
       <c r="D12">
-        <v>0.07687203063767588</v>
+        <v>0.002502910827391426</v>
       </c>
       <c r="E12">
-        <v>2.640013353439471</v>
+        <v>0.1964120917869607</v>
       </c>
       <c r="F12">
-        <v>0.09875722842824093</v>
+        <v>0.01323766307845315</v>
       </c>
       <c r="G12">
-        <v>0.0009673518095697962</v>
+        <v>7.602151379939076E-06</v>
       </c>
       <c r="H12">
-        <v>8.656564872347279E-05</v>
+        <v>6.69642950174336E-07</v>
       </c>
       <c r="I12">
-        <v>0.0722852291512389</v>
+        <v>0.0007412120777762382</v>
       </c>
       <c r="J12">
-        <v>1.092900191270126</v>
+        <v>0.02944734118803299</v>
       </c>
       <c r="K12">
-        <v>0.1123189109628889</v>
+        <v>0.003003638278365359</v>
       </c>
       <c r="L12">
-        <v>0.02702354322270872</v>
+        <v>0.01437969030522635</v>
       </c>
       <c r="M12">
-        <v>0.01416299793229535</v>
+        <v>4.673568113195529E-05</v>
       </c>
       <c r="N12">
-        <v>2.224221768776557E-07</v>
+        <v>2.32832572974002E-08</v>
       </c>
       <c r="O12">
-        <v>0.0005965242258165239</v>
+        <v>4.418555727212191E-05</v>
       </c>
       <c r="P12">
-        <v>0.0007182496864035328</v>
+        <v>9.640463538587292E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0007490651229771798</v>
+        <v>0.0001018812396266531</v>
       </c>
       <c r="R12">
-        <v>0.004636492197065671</v>
+        <v>0.0001275625107726165</v>
       </c>
       <c r="S12">
-        <v>2.331503384414078E-09</v>
+        <v>2.864810435481096E-10</v>
       </c>
       <c r="T12">
-        <v>1.209861951684112E-06</v>
+        <v>7.764474512086273E-08</v>
       </c>
       <c r="U12">
-        <v>0.02856603577026722</v>
+        <v>0.004517339865540156</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.001869213830722756</v>
+        <v>0.0002400585022664406</v>
       </c>
       <c r="B13">
-        <v>0.6965425955869656</v>
+        <v>0.1932148930019713</v>
       </c>
       <c r="C13">
-        <v>0.171668803790043</v>
+        <v>0.005356596822122374</v>
       </c>
       <c r="D13">
-        <v>0.223293520491419</v>
+        <v>0.009062752276223426</v>
       </c>
       <c r="E13">
-        <v>3.135536853831662</v>
+        <v>3.722526483446583</v>
       </c>
       <c r="F13">
-        <v>0.1795537252270356</v>
+        <v>0.06151576165206208</v>
       </c>
       <c r="G13">
-        <v>0.0003900019548300741</v>
+        <v>1.936117956864681E-05</v>
       </c>
       <c r="H13">
-        <v>0.0001705794727295348</v>
+        <v>5.244946161248245E-06</v>
       </c>
       <c r="I13">
-        <v>0.07681691111335791</v>
+        <v>0.00256984723229975</v>
       </c>
       <c r="J13">
-        <v>3.217340529698978</v>
+        <v>0.1633231693606969</v>
       </c>
       <c r="K13">
-        <v>0.2073903113564425</v>
+        <v>0.0008394809447199882</v>
       </c>
       <c r="L13">
-        <v>0.02327112188664267</v>
+        <v>0.007997821247893444</v>
       </c>
       <c r="M13">
-        <v>0.01145433264400001</v>
+        <v>0.0008360682804987063</v>
       </c>
       <c r="N13">
-        <v>3.532376649266704E-07</v>
+        <v>8.612594950548477E-08</v>
       </c>
       <c r="O13">
-        <v>0.0007945734387558497</v>
+        <v>0.0001479688959867082</v>
       </c>
       <c r="P13">
-        <v>0.001220736631385933</v>
+        <v>0.0003069426464085352</v>
       </c>
       <c r="Q13">
-        <v>0.001280358812181828</v>
+        <v>0.0003484561813247674</v>
       </c>
       <c r="R13">
-        <v>0.006508606818831638</v>
+        <v>0.0002864910377844535</v>
       </c>
       <c r="S13">
-        <v>3.158134645984636E-09</v>
+        <v>7.680304841588427E-10</v>
       </c>
       <c r="T13">
-        <v>2.15202152408184E-06</v>
+        <v>3.190607220076678E-07</v>
       </c>
       <c r="U13">
-        <v>0.0504135945176515</v>
+        <v>0.02591120975526327</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.001472941889953382</v>
+        <v>-0.0003027669144004831</v>
       </c>
       <c r="B14">
-        <v>0.4466068026717074</v>
+        <v>-2.221943826398587</v>
       </c>
       <c r="C14">
-        <v>0.06155749467506261</v>
+        <v>-0.1850631260839666</v>
       </c>
       <c r="D14">
-        <v>0.08070113174250471</v>
+        <v>-0.2545303525504079</v>
       </c>
       <c r="E14">
-        <v>4.132010346367617</v>
+        <v>-4.952473583165762</v>
       </c>
       <c r="F14">
-        <v>0.1258350351016189</v>
+        <v>-0.01877483826231866</v>
       </c>
       <c r="G14">
-        <v>0.0009776636124309397</v>
+        <v>-5.135087827428531E-05</v>
       </c>
       <c r="H14">
-        <v>8.922302573217484E-05</v>
+        <v>-1.187452128889729E-05</v>
       </c>
       <c r="I14">
-        <v>0.07847873193125818</v>
+        <v>-0.04147360731827519</v>
       </c>
       <c r="J14">
-        <v>1.160180129710791</v>
+        <v>-2.98367668964816</v>
       </c>
       <c r="K14">
-        <v>0.11573394760446</v>
+        <v>0.001162910121512658</v>
       </c>
       <c r="L14">
-        <v>0.03126211457099125</v>
+        <v>-0.004256687227723792</v>
       </c>
       <c r="M14">
-        <v>0.01528680266498368</v>
+        <v>0.0001473898060906207</v>
       </c>
       <c r="N14">
-        <v>2.443636058444132E-07</v>
+        <v>-4.53778037760282E-07</v>
       </c>
       <c r="O14">
-        <v>0.0007059247970802208</v>
+        <v>-0.000134415243816065</v>
       </c>
       <c r="P14">
-        <v>0.001177074643804141</v>
+        <v>-0.0004941235020476082</v>
       </c>
       <c r="Q14">
-        <v>0.001227075496910363</v>
+        <v>-0.0005021256731522293</v>
       </c>
       <c r="R14">
-        <v>0.004837597858778649</v>
+        <v>-0.002269543446296482</v>
       </c>
       <c r="S14">
-        <v>2.752645472597331E-09</v>
+        <v>-6.634298419752511E-09</v>
       </c>
       <c r="T14">
-        <v>1.396138049938336E-06</v>
+        <v>-2.970549616136849E-06</v>
       </c>
       <c r="U14">
-        <v>0.03991210015266004</v>
+        <v>-0.006767701989387242</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.006490748649785581</v>
+        <v>0.0002400585022664406</v>
       </c>
       <c r="B15">
-        <v>-0.5144198908179863</v>
+        <v>0.1932148930019713</v>
       </c>
       <c r="C15">
-        <v>-0.5126269713851869</v>
+        <v>0.005356596822122374</v>
       </c>
       <c r="D15">
-        <v>-0.6554899401953451</v>
+        <v>0.009062752276223426</v>
       </c>
       <c r="E15">
-        <v>-44.9578883171687</v>
+        <v>3.722526483446583</v>
       </c>
       <c r="F15">
-        <v>-0.1431501696433341</v>
+        <v>0.06151576165206208</v>
       </c>
       <c r="G15">
-        <v>-0.0007222434623434189</v>
+        <v>1.936117956864681E-05</v>
       </c>
       <c r="H15">
-        <v>-2.227253931432007E-05</v>
+        <v>5.244946161248245E-06</v>
       </c>
       <c r="I15">
-        <v>-0.07328943015302375</v>
+        <v>0.00256984723229975</v>
       </c>
       <c r="J15">
-        <v>-7.492091900405203</v>
+        <v>0.1633231693606969</v>
       </c>
       <c r="K15">
-        <v>-0.0510569457453667</v>
+        <v>0.0008394809447199882</v>
       </c>
       <c r="L15">
-        <v>-0.03497458277982181</v>
+        <v>0.007997821247893444</v>
       </c>
       <c r="M15">
-        <v>-0.02634864199627184</v>
+        <v>0.0008360682804987063</v>
       </c>
       <c r="N15">
-        <v>-2.485598668022693E-07</v>
+        <v>8.612594950548477E-08</v>
       </c>
       <c r="O15">
-        <v>-0.00225676292446123</v>
+        <v>0.0001479688959867082</v>
       </c>
       <c r="P15">
-        <v>-0.001651215656444651</v>
+        <v>0.0003069426464085352</v>
       </c>
       <c r="Q15">
-        <v>-0.001720588473188304</v>
+        <v>0.0003484561813247674</v>
       </c>
       <c r="R15">
-        <v>-0.004639160339103111</v>
+        <v>0.0002864910377844535</v>
       </c>
       <c r="S15">
-        <v>-4.76979395527505E-09</v>
+        <v>7.680304841588427E-10</v>
       </c>
       <c r="T15">
-        <v>-3.858391513202549E-06</v>
+        <v>3.190607220076678E-07</v>
       </c>
       <c r="U15">
-        <v>-0.04691174401977456</v>
+        <v>0.02591120975526327</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.0147794573899811</v>
+        <v>-0.001127772392629044</v>
       </c>
       <c r="B16">
-        <v>-4.899457806146281</v>
+        <v>-2.905930848724317</v>
       </c>
       <c r="C16">
-        <v>-0.1584830918506808</v>
+        <v>-0.1305959594701798</v>
       </c>
       <c r="D16">
-        <v>-0.2086313453385227</v>
+        <v>-0.1881641396180643</v>
       </c>
       <c r="E16">
-        <v>-11.62089096097392</v>
+        <v>-7.489396100065384</v>
       </c>
       <c r="F16">
-        <v>-1.33257364667526</v>
+        <v>-0.07598856603554884</v>
       </c>
       <c r="G16">
-        <v>-0.001880765833698872</v>
+        <v>-0.0002960332964995705</v>
       </c>
       <c r="H16">
-        <v>-0.0006523007272320236</v>
+        <v>-2.385709761930012E-05</v>
       </c>
       <c r="I16">
-        <v>-0.2268308831735096</v>
+        <v>-0.07641797989497266</v>
       </c>
       <c r="J16">
-        <v>-5.272234569922727</v>
+        <v>-1.821205932822409</v>
       </c>
       <c r="K16">
-        <v>-0.3160806235170137</v>
+        <v>0.008253626191870547</v>
       </c>
       <c r="L16">
-        <v>-1.228870020133599</v>
+        <v>-0.02760139256212078</v>
       </c>
       <c r="M16">
-        <v>-0.158958165134282</v>
+        <v>-0.0008452762675067803</v>
       </c>
       <c r="N16">
-        <v>-2.482102609911584E-06</v>
+        <v>-2.958562241801927E-07</v>
       </c>
       <c r="O16">
-        <v>-0.008112575555141169</v>
+        <v>-0.0006194575011828011</v>
       </c>
       <c r="P16">
-        <v>-0.01102698543198794</v>
+        <v>-0.0008561062032999791</v>
       </c>
       <c r="Q16">
-        <v>-0.01143249771607388</v>
+        <v>-0.0008896668849045597</v>
       </c>
       <c r="R16">
-        <v>-0.05176817044710522</v>
+        <v>-0.005094434696971548</v>
       </c>
       <c r="S16">
-        <v>-3.075355000222541E-08</v>
+        <v>-9.129821072941981E-09</v>
       </c>
       <c r="T16">
-        <v>-1.172974962275795E-05</v>
+        <v>-3.767397127577186E-06</v>
       </c>
       <c r="U16">
-        <v>-0.3912979449063855</v>
+        <v>-0.02535583582017977</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716546422413472</v>
+        <v>3.22376693367179E-05</v>
       </c>
       <c r="B17">
-        <v>-2.372984746204462</v>
+        <v>0.004177932428706111</v>
       </c>
       <c r="C17">
-        <v>-0.1201199389437007</v>
+        <v>0.001113009604043947</v>
       </c>
       <c r="D17">
-        <v>-0.1599610761027137</v>
+        <v>0.001497187246866317</v>
       </c>
       <c r="E17">
-        <v>-1.265781192830622</v>
+        <v>0.2282113295140377</v>
       </c>
       <c r="F17">
-        <v>-0.007903464483130106</v>
+        <v>0.001119529097570097</v>
       </c>
       <c r="G17">
-        <v>-5.236324554503363E-06</v>
+        <v>2.727407241808243E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145683914754631E-05</v>
+        <v>3.972295539434458E-07</v>
       </c>
       <c r="I17">
-        <v>-0.02399119021887828</v>
+        <v>0.0004958955002772293</v>
       </c>
       <c r="J17">
-        <v>-2.349946984604443</v>
+        <v>0.02541819492235541</v>
       </c>
       <c r="K17">
-        <v>-0.001044696333229455</v>
+        <v>0.0001296991491403689</v>
       </c>
       <c r="L17">
-        <v>-0.0005566583626634928</v>
+        <v>0.0002784029847262784</v>
       </c>
       <c r="M17">
-        <v>-0.00126572319353026</v>
+        <v>-6.446808906155006E-07</v>
       </c>
       <c r="N17">
-        <v>-1.01724414183921E-06</v>
+        <v>1.518256838439613E-09</v>
       </c>
       <c r="O17">
-        <v>-9.178312976836515E-05</v>
+        <v>1.308117929204681E-05</v>
       </c>
       <c r="P17">
-        <v>-0.0006027119760296834</v>
+        <v>1.25318659121615E-05</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068256960908631</v>
+        <v>1.324518727300464E-05</v>
       </c>
       <c r="R17">
-        <v>-0.003723410346524299</v>
+        <v>2.327840180794699E-05</v>
       </c>
       <c r="S17">
-        <v>-6.903281052444407E-09</v>
+        <v>2.807603175161794E-11</v>
       </c>
       <c r="T17">
-        <v>-2.884956387351992E-06</v>
+        <v>1.959897430035977E-08</v>
       </c>
       <c r="U17">
-        <v>-0.002983724677141254</v>
+        <v>0.0002862359675084524</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0001933860014000424</v>
+        <v>0.000317260607559527</v>
       </c>
       <c r="B18">
-        <v>-3.020426940177512</v>
+        <v>0.01438050035483897</v>
       </c>
       <c r="C18">
-        <v>-0.1585863090948381</v>
+        <v>0.009876110539888929</v>
       </c>
       <c r="D18">
-        <v>-0.2296331744108458</v>
+        <v>0.01374714295176581</v>
       </c>
       <c r="E18">
-        <v>-8.833295457065185</v>
+        <v>3.036110619178591</v>
       </c>
       <c r="F18">
-        <v>-0.005003262128195839</v>
+        <v>0.003432919306647236</v>
       </c>
       <c r="G18">
-        <v>-2.655623062349735E-06</v>
+        <v>1.637746601030049E-05</v>
       </c>
       <c r="H18">
-        <v>-4.732000228011894E-06</v>
+        <v>2.978082115670952E-07</v>
       </c>
       <c r="I18">
-        <v>-0.00983137716929712</v>
+        <v>0.004551242753002888</v>
       </c>
       <c r="J18">
-        <v>-1.917643191338486</v>
+        <v>0.1109958646530203</v>
       </c>
       <c r="K18">
-        <v>-0.0004283465279362533</v>
+        <v>5.684868889867786E-05</v>
       </c>
       <c r="L18">
-        <v>-0.0003125677385611164</v>
+        <v>0.0005643998999115244</v>
       </c>
       <c r="M18">
-        <v>-0.0006251338095785657</v>
+        <v>0.002545944303193652</v>
       </c>
       <c r="N18">
-        <v>-2.204923862646055E-07</v>
+        <v>4.247286103232592E-09</v>
       </c>
       <c r="O18">
-        <v>-6.373949608667699E-05</v>
+        <v>0.0001205650677357275</v>
       </c>
       <c r="P18">
-        <v>-0.0004646641418501771</v>
+        <v>5.354748256516673E-05</v>
       </c>
       <c r="Q18">
-        <v>-0.0004671485312884484</v>
+        <v>5.566771310731721E-05</v>
       </c>
       <c r="R18">
-        <v>-0.001527600900516592</v>
+        <v>-3.593767031765374E-05</v>
       </c>
       <c r="S18">
-        <v>-8.798283390177541E-09</v>
+        <v>1.736566526220374E-10</v>
       </c>
       <c r="T18">
-        <v>-3.317026254492277E-06</v>
+        <v>1.294725184235825E-07</v>
       </c>
       <c r="U18">
-        <v>-0.001836593978446905</v>
+        <v>0.001277530633186681</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001646121337716588</v>
+        <v>0.003211432698957535</v>
       </c>
       <c r="B19">
-        <v>-2.551055179473744</v>
+        <v>1.19235103276486</v>
       </c>
       <c r="C19">
-        <v>-0.1339373210868955</v>
+        <v>0.0408748575511218</v>
       </c>
       <c r="D19">
-        <v>-0.1939394979044583</v>
+        <v>0.05159467977056928</v>
       </c>
       <c r="E19">
-        <v>-7.46096673613058</v>
+        <v>7.351979367000859</v>
       </c>
       <c r="F19">
-        <v>-0.004357871352830372</v>
+        <v>0.2589782349859715</v>
       </c>
       <c r="G19">
-        <v>-2.414200920745041E-06</v>
+        <v>0.0005037090295173091</v>
       </c>
       <c r="H19">
-        <v>-4.015526137742059E-06</v>
+        <v>-0.002462599942054861</v>
       </c>
       <c r="I19">
-        <v>-0.008600984275296897</v>
+        <v>0.02425252069417436</v>
       </c>
       <c r="J19">
-        <v>-1.619602095713249</v>
+        <v>2.397393597226613</v>
       </c>
       <c r="K19">
-        <v>-0.0003773715178178028</v>
+        <v>0.05817103502387221</v>
       </c>
       <c r="L19">
-        <v>-0.0002772537098111922</v>
+        <v>2.002549069201274</v>
       </c>
       <c r="M19">
-        <v>-0.0005834807744874545</v>
+        <v>0.001342252270970642</v>
       </c>
       <c r="N19">
-        <v>-1.862772742123009E-07</v>
+        <v>3.000385236377545E-07</v>
       </c>
       <c r="O19">
-        <v>-5.55431925631026E-05</v>
+        <v>0.00281434581597237</v>
       </c>
       <c r="P19">
-        <v>-0.000393872099767705</v>
+        <v>0.004199702712372762</v>
       </c>
       <c r="Q19">
-        <v>-0.0003961234669224365</v>
+        <v>0.004308237575540087</v>
       </c>
       <c r="R19">
-        <v>-0.001449330890297234</v>
+        <v>0.06643524714958414</v>
       </c>
       <c r="S19">
-        <v>-7.43174377226392E-09</v>
+        <v>2.278454868925333E-08</v>
       </c>
       <c r="T19">
-        <v>-2.803970325701514E-06</v>
+        <v>3.655687052178562E-06</v>
       </c>
       <c r="U19">
-        <v>-0.001600392004408769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>-0.001398397579623764</v>
-      </c>
-      <c r="B20">
-        <v>-0.7567638647941042</v>
-      </c>
-      <c r="C20">
-        <v>-0.01833915542971589</v>
-      </c>
-      <c r="D20">
-        <v>-0.02434508710769806</v>
-      </c>
-      <c r="E20">
-        <v>-0.1475128010166002</v>
-      </c>
-      <c r="F20">
-        <v>-0.02691727963864349</v>
-      </c>
-      <c r="G20">
-        <v>-9.761806922327314E-06</v>
-      </c>
-      <c r="H20">
-        <v>-0.0002333030147434004</v>
-      </c>
-      <c r="I20">
-        <v>-0.006488520433672793</v>
-      </c>
-      <c r="J20">
-        <v>-0.4347469531068889</v>
-      </c>
-      <c r="K20">
-        <v>-0.001827152501561654</v>
-      </c>
-      <c r="L20">
-        <v>-0.0007984195824564946</v>
-      </c>
-      <c r="M20">
-        <v>-0.002098156443301221</v>
-      </c>
-      <c r="N20">
-        <v>-1.167375885963192E-05</v>
-      </c>
-      <c r="O20">
-        <v>-0.0004388304003148068</v>
-      </c>
-      <c r="P20">
-        <v>-0.003158334710354766</v>
-      </c>
-      <c r="Q20">
-        <v>-0.003169012313578013</v>
-      </c>
-      <c r="R20">
-        <v>-0.002121980058079036</v>
-      </c>
-      <c r="S20">
-        <v>-2.854796014752976E-09</v>
-      </c>
-      <c r="T20">
-        <v>-1.113230964500569E-06</v>
-      </c>
-      <c r="U20">
-        <v>-0.009696643890783896</v>
+        <v>0.08608849621678548</v>
       </c>
     </row>
   </sheetData>
